--- a/test_case_data/bmc/bmc_my_2021513.xlsx
+++ b/test_case_data/bmc/bmc_my_2021513.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="729" uniqueCount="332">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="729" uniqueCount="330">
   <si>
     <t>caseNum</t>
   </si>
@@ -419,6 +419,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>Myservice</t>
     </r>
     <r>
@@ -579,9 +586,6 @@
     <t>读单条消息成功</t>
   </si>
   <si>
-    <t>{ "success": true,"code": 1001,"msg": "操作成功"}</t>
-  </si>
-  <si>
     <t>http://yapi.hikcreate.com/project/31/interface/api/1620</t>
   </si>
   <si>
@@ -791,7 +795,7 @@
     <t>/bacw/trade/couponCode</t>
   </si>
   <si>
-    <t>{"tradeId":1}</t>
+    <t>{"tradeId":"不存在id"}</t>
   </si>
   <si>
     <t>获取失败，返回错误信息</t>
@@ -827,9 +831,6 @@
     <t>POST</t>
   </si>
   <si>
-    <t>{"tradeId":2}</t>
-  </si>
-  <si>
     <t>取消失败，返回错误信息</t>
   </si>
   <si>
@@ -842,7 +843,7 @@
     <t>非法取消订单</t>
   </si>
   <si>
-    <t>{"tradeId":2150}</t>
+    <t>{"tradeId":"非法取消id"}</t>
   </si>
   <si>
     <t>{"success":false,"code":1001,"msg":"取消失败，非法的操作","errorMsg":"取消失败，非法的操作"}</t>
@@ -1246,10 +1247,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="31">
     <font>
@@ -1328,29 +1329,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1363,24 +1349,22 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1394,19 +1378,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1422,6 +1406,14 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1441,6 +1433,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -1456,15 +1456,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1478,7 +1479,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="38">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1505,13 +1506,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.4"/>
+        <fgColor rgb="FF2F5496"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF2F5496"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1523,7 +1554,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1535,13 +1566,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1559,48 +1686,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1608,96 +1693,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1711,22 +1706,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1742,21 +1732,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1788,6 +1763,15 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
@@ -1808,6 +1792,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1816,149 +1811,149 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="30" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1977,9 +1972,6 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1989,7 +1981,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1999,9 +1991,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
@@ -2026,11 +2015,11 @@
     <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="10" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="10" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="10" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -2041,7 +2030,10 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2394,15 +2386,15 @@
   <sheetPr/>
   <dimension ref="A1:T57"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="A22" sqref="$A22:$XFD22"/>
+      <selection pane="bottomLeft" activeCell="K44" sqref="K44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="30.125" style="9" customWidth="1"/>
+    <col min="1" max="1" width="30.125" style="8" customWidth="1"/>
     <col min="2" max="2" width="19.375" customWidth="1"/>
     <col min="3" max="3" width="28.75" customWidth="1"/>
     <col min="4" max="4" width="11.625" customWidth="1"/>
@@ -2422,63 +2414,63 @@
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="33" customHeight="1" spans="1:18">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="F1" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="G1" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="10" t="s">
+      <c r="H1" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="10" t="s">
+      <c r="I1" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="10" t="s">
+      <c r="J1" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="10" t="s">
+      <c r="K1" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="10" t="s">
+      <c r="L1" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="10" t="s">
+      <c r="M1" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="10" t="s">
+      <c r="N1" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="10" t="s">
+      <c r="O1" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="10" t="s">
+      <c r="P1" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="10" t="s">
+      <c r="Q1" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="10" t="s">
+      <c r="R1" s="9" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="2" s="2" customFormat="1" ht="30" customHeight="1" spans="1:16">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="10" t="s">
         <v>18</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -2505,10 +2497,10 @@
       <c r="L2" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="M2" s="18" t="s">
+      <c r="M2" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="O2" s="19" t="s">
+      <c r="O2" s="17" t="s">
         <v>28</v>
       </c>
       <c r="P2" s="2" t="s">
@@ -2516,7 +2508,7 @@
       </c>
     </row>
     <row r="3" s="3" customFormat="1" ht="30" customHeight="1" spans="1:16">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="11" t="s">
         <v>30</v>
       </c>
       <c r="B3" s="3" t="s">
@@ -2549,7 +2541,7 @@
       <c r="M3" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="O3" s="20" t="s">
+      <c r="O3" s="18" t="s">
         <v>39</v>
       </c>
       <c r="P3" s="3" t="s">
@@ -2557,7 +2549,7 @@
       </c>
     </row>
     <row r="4" s="2" customFormat="1" ht="30" customHeight="1" spans="1:16">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="10" t="s">
         <v>40</v>
       </c>
       <c r="B4" s="2" t="s">
@@ -2590,7 +2582,7 @@
       <c r="M4" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="O4" s="19" t="s">
+      <c r="O4" s="17" t="s">
         <v>39</v>
       </c>
       <c r="P4" s="2" t="s">
@@ -2598,7 +2590,7 @@
       </c>
     </row>
     <row r="5" s="2" customFormat="1" ht="30" customHeight="1" spans="1:16">
-      <c r="A5" s="11" t="s">
+      <c r="A5" s="10" t="s">
         <v>45</v>
       </c>
       <c r="B5" s="2" t="s">
@@ -2631,7 +2623,7 @@
       <c r="M5" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="O5" s="19" t="s">
+      <c r="O5" s="17" t="s">
         <v>39</v>
       </c>
       <c r="P5" s="2" t="s">
@@ -2639,7 +2631,7 @@
       </c>
     </row>
     <row r="6" s="2" customFormat="1" ht="30" customHeight="1" spans="1:16">
-      <c r="A6" s="11" t="s">
+      <c r="A6" s="10" t="s">
         <v>49</v>
       </c>
       <c r="B6" s="2" t="s">
@@ -2669,10 +2661,10 @@
       <c r="L6" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="M6" s="18" t="s">
+      <c r="M6" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="O6" s="19" t="s">
+      <c r="O6" s="17" t="s">
         <v>54</v>
       </c>
       <c r="P6" s="2" t="s">
@@ -2680,7 +2672,7 @@
       </c>
     </row>
     <row r="7" s="2" customFormat="1" ht="30" customHeight="1" spans="1:16">
-      <c r="A7" s="11" t="s">
+      <c r="A7" s="10" t="s">
         <v>55</v>
       </c>
       <c r="B7" s="2" t="s">
@@ -2713,7 +2705,7 @@
       <c r="M7" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="O7" s="19" t="s">
+      <c r="O7" s="17" t="s">
         <v>54</v>
       </c>
       <c r="P7" s="2" t="s">
@@ -2721,7 +2713,7 @@
       </c>
     </row>
     <row r="8" s="2" customFormat="1" ht="30" customHeight="1" spans="1:16">
-      <c r="A8" s="11" t="s">
+      <c r="A8" s="10" t="s">
         <v>60</v>
       </c>
       <c r="B8" s="2" t="s">
@@ -2748,10 +2740,10 @@
       <c r="L8" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="M8" s="18" t="s">
+      <c r="M8" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="O8" s="19" t="s">
+      <c r="O8" s="17" t="s">
         <v>65</v>
       </c>
       <c r="P8" s="2" t="s">
@@ -2759,7 +2751,7 @@
       </c>
     </row>
     <row r="9" s="2" customFormat="1" ht="30" customHeight="1" spans="1:16">
-      <c r="A9" s="11" t="s">
+      <c r="A9" s="10" t="s">
         <v>66</v>
       </c>
       <c r="B9" s="2" t="s">
@@ -2789,10 +2781,10 @@
       <c r="L9" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="M9" s="18" t="s">
+      <c r="M9" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="O9" s="19" t="s">
+      <c r="O9" s="17" t="s">
         <v>71</v>
       </c>
       <c r="P9" s="2" t="s">
@@ -2800,7 +2792,7 @@
       </c>
     </row>
     <row r="10" s="2" customFormat="1" ht="30" customHeight="1" spans="1:16">
-      <c r="A10" s="11" t="s">
+      <c r="A10" s="10" t="s">
         <v>72</v>
       </c>
       <c r="B10" s="2" t="s">
@@ -2830,10 +2822,10 @@
       <c r="L10" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="M10" s="18" t="s">
+      <c r="M10" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="O10" s="19" t="s">
+      <c r="O10" s="17" t="s">
         <v>71</v>
       </c>
       <c r="P10" s="2" t="s">
@@ -2841,7 +2833,7 @@
       </c>
     </row>
     <row r="11" s="2" customFormat="1" ht="30" customHeight="1" spans="1:16">
-      <c r="A11" s="11" t="s">
+      <c r="A11" s="10" t="s">
         <v>76</v>
       </c>
       <c r="B11" s="2" t="s">
@@ -2874,7 +2866,7 @@
       <c r="M11" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="O11" s="19" t="s">
+      <c r="O11" s="17" t="s">
         <v>83</v>
       </c>
       <c r="P11" s="2" t="s">
@@ -2882,7 +2874,7 @@
       </c>
     </row>
     <row r="12" s="2" customFormat="1" ht="30" customHeight="1" spans="1:16">
-      <c r="A12" s="11" t="s">
+      <c r="A12" s="10" t="s">
         <v>84</v>
       </c>
       <c r="B12" s="2" t="s">
@@ -2912,10 +2904,10 @@
       <c r="L12" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="M12" s="18" t="s">
+      <c r="M12" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="O12" s="19" t="s">
+      <c r="O12" s="17" t="s">
         <v>90</v>
       </c>
       <c r="P12" s="2" t="s">
@@ -2923,7 +2915,7 @@
       </c>
     </row>
     <row r="13" s="2" customFormat="1" ht="30" customHeight="1" spans="1:16">
-      <c r="A13" s="11" t="s">
+      <c r="A13" s="10" t="s">
         <v>91</v>
       </c>
       <c r="B13" s="2" t="s">
@@ -2953,7 +2945,7 @@
       <c r="M13" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="O13" s="19" t="s">
+      <c r="O13" s="17" t="s">
         <v>90</v>
       </c>
       <c r="P13" s="2" t="s">
@@ -2961,7 +2953,7 @@
       </c>
     </row>
     <row r="14" s="2" customFormat="1" ht="30" customHeight="1" spans="1:16">
-      <c r="A14" s="11" t="s">
+      <c r="A14" s="10" t="s">
         <v>96</v>
       </c>
       <c r="B14" s="2" t="s">
@@ -2994,7 +2986,7 @@
       <c r="M14" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="O14" s="19" t="s">
+      <c r="O14" s="17" t="s">
         <v>90</v>
       </c>
       <c r="P14" s="2" t="s">
@@ -3002,7 +2994,7 @@
       </c>
     </row>
     <row r="15" s="2" customFormat="1" ht="30" customHeight="1" spans="1:16">
-      <c r="A15" s="11" t="s">
+      <c r="A15" s="10" t="s">
         <v>101</v>
       </c>
       <c r="B15" s="2" t="s">
@@ -3035,7 +3027,7 @@
       <c r="M15" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="O15" s="19" t="s">
+      <c r="O15" s="17" t="s">
         <v>107</v>
       </c>
       <c r="P15" s="2" t="s">
@@ -3043,7 +3035,7 @@
       </c>
     </row>
     <row r="16" s="2" customFormat="1" ht="30" customHeight="1" spans="1:16">
-      <c r="A16" s="11" t="s">
+      <c r="A16" s="10" t="s">
         <v>108</v>
       </c>
       <c r="B16" s="2" t="s">
@@ -3073,7 +3065,7 @@
       <c r="M16" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="O16" s="19" t="s">
+      <c r="O16" s="17" t="s">
         <v>107</v>
       </c>
       <c r="P16" s="2" t="s">
@@ -3081,7 +3073,7 @@
       </c>
     </row>
     <row r="17" s="2" customFormat="1" ht="30" customHeight="1" spans="1:16">
-      <c r="A17" s="11" t="s">
+      <c r="A17" s="10" t="s">
         <v>113</v>
       </c>
       <c r="B17" s="2" t="s">
@@ -3114,7 +3106,7 @@
       <c r="M17" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="O17" s="19" t="s">
+      <c r="O17" s="17" t="s">
         <v>107</v>
       </c>
       <c r="P17" s="2" t="s">
@@ -3122,7 +3114,7 @@
       </c>
     </row>
     <row r="18" s="4" customFormat="1" ht="30" customHeight="1" spans="1:18">
-      <c r="A18" s="13" t="s">
+      <c r="A18" s="12" t="s">
         <v>117</v>
       </c>
       <c r="B18" s="4" t="s">
@@ -3143,7 +3135,6 @@
       <c r="I18" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="J18" s="4"/>
       <c r="K18" s="4" t="s">
         <v>104</v>
       </c>
@@ -3153,7 +3144,7 @@
       <c r="M18" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="O18" s="21" t="s">
+      <c r="O18" s="19" t="s">
         <v>121</v>
       </c>
       <c r="P18" s="4" t="s">
@@ -3164,7 +3155,7 @@
       </c>
     </row>
     <row r="19" s="5" customFormat="1" ht="30" customHeight="1" spans="1:16">
-      <c r="A19" s="12" t="s">
+      <c r="A19" s="11" t="s">
         <v>123</v>
       </c>
       <c r="B19" s="3" t="s">
@@ -3201,53 +3192,53 @@
       <c r="M19" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="O19" s="22" t="s">
+      <c r="O19" s="20" t="s">
         <v>90</v>
       </c>
       <c r="P19" s="3" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="20" s="6" customFormat="1" ht="30" customHeight="1" spans="1:16">
-      <c r="A20" s="14" t="s">
+    <row r="20" s="2" customFormat="1" ht="30" customHeight="1" spans="1:16">
+      <c r="A20" s="10" t="s">
         <v>130</v>
       </c>
-      <c r="B20" s="6" t="s">
+      <c r="B20" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C20" s="6" t="s">
+      <c r="C20" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="D20" s="6" t="s">
+      <c r="D20" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="E20" s="6" t="s">
+      <c r="E20" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="F20" s="6" t="s">
+      <c r="F20" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="I20" s="6" t="s">
+      <c r="I20" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="K20" s="6" t="s">
+      <c r="K20" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="L20" s="6" t="s">
+      <c r="L20" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="M20" s="6" t="s">
+      <c r="M20" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="O20" s="23" t="s">
+      <c r="O20" s="17" t="s">
         <v>90</v>
       </c>
-      <c r="P20" s="6" t="s">
+      <c r="P20" s="2" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="21" s="2" customFormat="1" ht="30" customHeight="1" spans="1:16">
-      <c r="A21" s="11" t="s">
+      <c r="A21" s="10" t="s">
         <v>134</v>
       </c>
       <c r="B21" s="2" t="s">
@@ -3262,7 +3253,7 @@
       <c r="E21" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="F21" s="15" t="s">
+      <c r="F21" s="13" t="s">
         <v>138</v>
       </c>
       <c r="H21" s="2" t="s">
@@ -3280,7 +3271,7 @@
       <c r="M21" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="O21" s="19" t="s">
+      <c r="O21" s="17" t="s">
         <v>141</v>
       </c>
       <c r="P21" s="2" t="s">
@@ -3288,7 +3279,7 @@
       </c>
     </row>
     <row r="22" s="2" customFormat="1" ht="30" customHeight="1" spans="1:16">
-      <c r="A22" s="11" t="s">
+      <c r="A22" s="10" t="s">
         <v>142</v>
       </c>
       <c r="B22" s="2" t="s">
@@ -3318,1550 +3309,1550 @@
       <c r="M22" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="O22" s="19" t="s">
+      <c r="O22" s="17" t="s">
         <v>146</v>
       </c>
       <c r="P22" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="23" s="7" customFormat="1" ht="30" customHeight="1" spans="1:16">
-      <c r="A23" s="8" t="s">
+    <row r="23" s="2" customFormat="1" ht="30" customHeight="1" spans="1:16">
+      <c r="A23" s="10" t="s">
         <v>147</v>
       </c>
-      <c r="B23" s="7" t="s">
+      <c r="B23" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="C23" s="7" t="s">
+      <c r="C23" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="D23" s="7" t="s">
+      <c r="D23" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="E23" s="7" t="s">
+      <c r="E23" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="F23" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="H23" s="7" t="s">
+      <c r="H23" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="I23" s="7" t="s">
+      <c r="I23" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="K23" s="7" t="s">
+      <c r="K23" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="L23" s="7" t="s">
+      <c r="L23" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="M23" s="7" t="s">
+      <c r="M23" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="O23" s="24" t="s">
+      <c r="O23" s="17" t="s">
         <v>153</v>
       </c>
-      <c r="P23" s="7" t="s">
+      <c r="P23" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="24" s="7" customFormat="1" ht="30" customHeight="1" spans="1:16">
-      <c r="A24" s="8" t="s">
+    <row r="24" s="2" customFormat="1" ht="30" customHeight="1" spans="1:16">
+      <c r="A24" s="10" t="s">
         <v>154</v>
       </c>
-      <c r="B24" s="7" t="s">
+      <c r="B24" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="C24" s="7" t="s">
+      <c r="C24" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="D24" s="7" t="s">
+      <c r="D24" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E24" s="7" t="s">
+      <c r="E24" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="F24" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="H24" s="7" t="s">
+      <c r="H24" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="I24" s="7" t="s">
+      <c r="I24" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="L24" s="7" t="s">
+      <c r="L24" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="M24" s="7" t="s">
+      <c r="M24" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="O24" s="24" t="s">
+      <c r="O24" s="17" t="s">
         <v>160</v>
       </c>
-      <c r="P24" s="7" t="s">
+      <c r="P24" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="25" s="7" customFormat="1" ht="30" customHeight="1" spans="1:16">
-      <c r="A25" s="8" t="s">
+    <row r="25" s="2" customFormat="1" ht="30" customHeight="1" spans="1:16">
+      <c r="A25" s="10" t="s">
         <v>161</v>
       </c>
-      <c r="B25" s="7" t="s">
+      <c r="B25" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="C25" s="7" t="s">
+      <c r="C25" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="D25" s="7" t="s">
+      <c r="D25" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="E25" s="7" t="s">
+      <c r="E25" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="F25" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="H25" s="7" t="s">
+      <c r="H25" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="I25" s="7" t="s">
+      <c r="I25" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="L25" s="7" t="s">
+      <c r="L25" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="M25" s="7" t="s">
+      <c r="M25" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="O25" s="24" t="s">
+      <c r="O25" s="17" t="s">
         <v>166</v>
       </c>
-      <c r="P25" s="7" t="s">
+      <c r="P25" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="26" s="7" customFormat="1" ht="30" customHeight="1" spans="1:16">
-      <c r="A26" s="8" t="s">
+    <row r="26" s="2" customFormat="1" ht="30" customHeight="1" spans="1:16">
+      <c r="A26" s="10" t="s">
         <v>167</v>
       </c>
-      <c r="B26" s="7" t="s">
+      <c r="B26" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="C26" s="7" t="s">
+      <c r="C26" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="D26" s="7" t="s">
+      <c r="D26" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="E26" s="7" t="s">
+      <c r="E26" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="F26" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="H26" s="7" t="s">
+      <c r="H26" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="I26" s="7" t="s">
+      <c r="I26" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="K26" s="7" t="s">
+      <c r="K26" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="L26" s="7" t="s">
+      <c r="L26" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="M26" s="7" t="s">
+      <c r="M26" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="O26" s="24" t="s">
+      <c r="O26" s="17" t="s">
         <v>173</v>
       </c>
-      <c r="P26" s="7" t="s">
+      <c r="P26" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="27" s="7" customFormat="1" ht="30" customHeight="1" spans="1:16">
-      <c r="A27" s="8" t="s">
+    <row r="27" s="2" customFormat="1" ht="30" customHeight="1" spans="1:16">
+      <c r="A27" s="10" t="s">
         <v>174</v>
       </c>
-      <c r="B27" s="7" t="s">
+      <c r="B27" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="C27" s="7" t="s">
+      <c r="C27" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="D27" s="7" t="s">
+      <c r="D27" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="E27" s="7" t="s">
+      <c r="E27" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="F27" s="7" t="s">
+      <c r="F27" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="H27" s="7" t="s">
+      <c r="H27" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="I27" s="7" t="s">
+      <c r="I27" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="K27" s="7" t="s">
+      <c r="K27" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="L27" s="7" t="s">
+      <c r="L27" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="M27" s="7" t="s">
+      <c r="M27" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="O27" s="17" t="s">
         <v>180</v>
       </c>
-      <c r="O27" s="24" t="s">
+      <c r="P27" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="28" s="2" customFormat="1" ht="30" customHeight="1" spans="1:16">
+      <c r="A28" s="10" t="s">
         <v>181</v>
       </c>
-      <c r="P27" s="7" t="s">
+      <c r="B28" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I28" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="K28" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="L28" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="M28" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="O28" s="17" t="s">
+        <v>187</v>
+      </c>
+      <c r="P28" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="28" s="7" customFormat="1" ht="30" customHeight="1" spans="1:16">
-      <c r="A28" s="8" t="s">
+    <row r="29" s="2" customFormat="1" ht="30" customHeight="1" spans="1:16">
+      <c r="A29" s="10" t="s">
+        <v>188</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="C29" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="B28" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="C28" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="D28" s="7" t="s">
+      <c r="D29" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="E28" s="7" t="s">
+      <c r="E29" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="F29" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="F28" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="H28" s="7" t="s">
+      <c r="H29" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="I28" s="7" t="s">
+      <c r="I29" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="K28" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="L28" s="7" t="s">
+      <c r="L29" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="M29" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="O29" s="17" t="s">
         <v>187</v>
       </c>
-      <c r="M28" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="O28" s="24" t="s">
-        <v>188</v>
-      </c>
-      <c r="P28" s="7" t="s">
+      <c r="P29" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="29" s="7" customFormat="1" ht="30" customHeight="1" spans="1:16">
-      <c r="A29" s="8" t="s">
-        <v>189</v>
-      </c>
-      <c r="B29" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="C29" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="D29" s="7" t="s">
+    <row r="30" s="2" customFormat="1" ht="24.95" customHeight="1" spans="1:20">
+      <c r="A30" s="10" t="s">
+        <v>191</v>
+      </c>
+      <c r="B30" s="10" t="s">
+        <v>192</v>
+      </c>
+      <c r="C30" s="10" t="s">
+        <v>192</v>
+      </c>
+      <c r="D30" s="10" t="s">
+        <v>193</v>
+      </c>
+      <c r="E30" s="10" t="s">
+        <v>194</v>
+      </c>
+      <c r="F30" s="10" t="s">
+        <v>195</v>
+      </c>
+      <c r="G30" s="10"/>
+      <c r="H30" s="10"/>
+      <c r="I30" s="21" t="s">
+        <v>196</v>
+      </c>
+      <c r="J30" s="10"/>
+      <c r="K30" s="10" t="s">
+        <v>197</v>
+      </c>
+      <c r="L30" s="10" t="s">
+        <v>198</v>
+      </c>
+      <c r="M30" s="21" t="s">
+        <v>199</v>
+      </c>
+      <c r="N30" s="10"/>
+      <c r="O30" s="22" t="s">
+        <v>200</v>
+      </c>
+      <c r="P30" s="10" t="s">
+        <v>201</v>
+      </c>
+      <c r="Q30" s="26"/>
+      <c r="R30" s="10"/>
+      <c r="S30" s="10"/>
+      <c r="T30" s="10"/>
+    </row>
+    <row r="31" s="2" customFormat="1" ht="24.95" customHeight="1" spans="1:20">
+      <c r="A31" s="10" t="s">
+        <v>202</v>
+      </c>
+      <c r="B31" s="10" t="s">
+        <v>192</v>
+      </c>
+      <c r="C31" s="10" t="s">
+        <v>192</v>
+      </c>
+      <c r="D31" s="10" t="s">
+        <v>193</v>
+      </c>
+      <c r="E31" s="10" t="s">
+        <v>203</v>
+      </c>
+      <c r="F31" s="10" t="s">
+        <v>195</v>
+      </c>
+      <c r="G31" s="10"/>
+      <c r="H31" s="10"/>
+      <c r="I31" s="21" t="s">
+        <v>196</v>
+      </c>
+      <c r="J31" s="10"/>
+      <c r="K31" s="10" t="s">
+        <v>197</v>
+      </c>
+      <c r="L31" s="10" t="s">
+        <v>198</v>
+      </c>
+      <c r="M31" s="21" t="s">
+        <v>204</v>
+      </c>
+      <c r="N31" s="10"/>
+      <c r="O31" s="22" t="s">
+        <v>200</v>
+      </c>
+      <c r="P31" s="10" t="s">
+        <v>201</v>
+      </c>
+      <c r="Q31" s="26"/>
+      <c r="R31" s="10"/>
+      <c r="S31" s="10"/>
+      <c r="T31" s="10"/>
+    </row>
+    <row r="32" s="2" customFormat="1" ht="24.95" customHeight="1" spans="1:20">
+      <c r="A32" s="10" t="s">
+        <v>205</v>
+      </c>
+      <c r="B32" s="10" t="s">
+        <v>192</v>
+      </c>
+      <c r="C32" s="10" t="s">
+        <v>192</v>
+      </c>
+      <c r="D32" s="10" t="s">
+        <v>193</v>
+      </c>
+      <c r="E32" s="10" t="s">
+        <v>206</v>
+      </c>
+      <c r="F32" s="10" t="s">
+        <v>195</v>
+      </c>
+      <c r="G32" s="10"/>
+      <c r="H32" s="10"/>
+      <c r="I32" s="21" t="s">
+        <v>196</v>
+      </c>
+      <c r="J32" s="10"/>
+      <c r="K32" s="10" t="s">
+        <v>197</v>
+      </c>
+      <c r="L32" s="10" t="s">
+        <v>198</v>
+      </c>
+      <c r="M32" s="21" t="s">
+        <v>199</v>
+      </c>
+      <c r="N32" s="10"/>
+      <c r="O32" s="22" t="s">
+        <v>200</v>
+      </c>
+      <c r="P32" s="10" t="s">
+        <v>201</v>
+      </c>
+      <c r="Q32" s="27"/>
+      <c r="R32" s="10"/>
+      <c r="S32" s="10"/>
+      <c r="T32" s="10"/>
+    </row>
+    <row r="33" s="2" customFormat="1" ht="24.95" customHeight="1" spans="1:20">
+      <c r="A33" s="10" t="s">
+        <v>207</v>
+      </c>
+      <c r="B33" s="10" t="s">
+        <v>208</v>
+      </c>
+      <c r="C33" s="10" t="s">
+        <v>209</v>
+      </c>
+      <c r="D33" s="10" t="s">
+        <v>193</v>
+      </c>
+      <c r="E33" s="10" t="s">
+        <v>210</v>
+      </c>
+      <c r="F33" s="10" t="s">
+        <v>211</v>
+      </c>
+      <c r="G33" s="10"/>
+      <c r="H33" s="10"/>
+      <c r="I33" s="21" t="s">
+        <v>196</v>
+      </c>
+      <c r="J33" s="10"/>
+      <c r="K33" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="L33" s="10" t="s">
+        <v>198</v>
+      </c>
+      <c r="M33" s="21" t="s">
+        <v>213</v>
+      </c>
+      <c r="N33" s="10"/>
+      <c r="O33" s="22" t="s">
+        <v>214</v>
+      </c>
+      <c r="P33" s="10" t="s">
+        <v>201</v>
+      </c>
+      <c r="Q33" s="27"/>
+      <c r="R33" s="10"/>
+      <c r="S33" s="10"/>
+      <c r="T33" s="10"/>
+    </row>
+    <row r="34" s="2" customFormat="1" ht="24.95" customHeight="1" spans="1:20">
+      <c r="A34" s="10" t="s">
+        <v>215</v>
+      </c>
+      <c r="B34" s="10" t="s">
+        <v>208</v>
+      </c>
+      <c r="C34" s="10" t="s">
+        <v>209</v>
+      </c>
+      <c r="D34" s="10" t="s">
+        <v>193</v>
+      </c>
+      <c r="E34" s="10" t="s">
+        <v>216</v>
+      </c>
+      <c r="F34" s="10" t="s">
+        <v>211</v>
+      </c>
+      <c r="G34" s="10"/>
+      <c r="H34" s="10"/>
+      <c r="I34" s="21" t="s">
+        <v>196</v>
+      </c>
+      <c r="J34" s="10"/>
+      <c r="K34" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="L34" s="10" t="s">
+        <v>198</v>
+      </c>
+      <c r="M34" s="21" t="s">
+        <v>217</v>
+      </c>
+      <c r="N34" s="10"/>
+      <c r="O34" s="22" t="s">
+        <v>214</v>
+      </c>
+      <c r="P34" s="10" t="s">
+        <v>201</v>
+      </c>
+      <c r="Q34" s="27"/>
+      <c r="R34" s="10"/>
+      <c r="S34" s="10"/>
+      <c r="T34" s="10"/>
+    </row>
+    <row r="35" s="2" customFormat="1" ht="24.95" customHeight="1" spans="1:20">
+      <c r="A35" s="10" t="s">
+        <v>218</v>
+      </c>
+      <c r="B35" s="10" t="s">
+        <v>219</v>
+      </c>
+      <c r="C35" s="10" t="s">
+        <v>220</v>
+      </c>
+      <c r="D35" s="10" t="s">
+        <v>193</v>
+      </c>
+      <c r="E35" s="10" t="s">
+        <v>221</v>
+      </c>
+      <c r="F35" s="10" t="s">
+        <v>222</v>
+      </c>
+      <c r="G35" s="10"/>
+      <c r="H35" s="10"/>
+      <c r="I35" s="21" t="s">
+        <v>196</v>
+      </c>
+      <c r="J35" s="10"/>
+      <c r="K35" s="10" t="s">
+        <v>223</v>
+      </c>
+      <c r="L35" s="10" t="s">
+        <v>198</v>
+      </c>
+      <c r="M35" s="21" t="s">
+        <v>224</v>
+      </c>
+      <c r="N35" s="10"/>
+      <c r="O35" s="22" t="s">
+        <v>225</v>
+      </c>
+      <c r="P35" s="10" t="s">
+        <v>201</v>
+      </c>
+      <c r="Q35" s="27"/>
+      <c r="R35" s="10"/>
+      <c r="S35" s="10"/>
+      <c r="T35" s="10"/>
+    </row>
+    <row r="36" s="2" customFormat="1" ht="24.95" customHeight="1" spans="1:20">
+      <c r="A36" s="10" t="s">
+        <v>226</v>
+      </c>
+      <c r="B36" s="10" t="s">
+        <v>219</v>
+      </c>
+      <c r="C36" s="10" t="s">
+        <v>220</v>
+      </c>
+      <c r="D36" s="10" t="s">
+        <v>193</v>
+      </c>
+      <c r="E36" s="10" t="s">
+        <v>227</v>
+      </c>
+      <c r="F36" s="10" t="s">
+        <v>222</v>
+      </c>
+      <c r="G36" s="10"/>
+      <c r="H36" s="10"/>
+      <c r="I36" s="21" t="s">
+        <v>196</v>
+      </c>
+      <c r="J36" s="10"/>
+      <c r="K36" s="10" t="s">
+        <v>228</v>
+      </c>
+      <c r="L36" s="10" t="s">
+        <v>198</v>
+      </c>
+      <c r="M36" s="21" t="s">
+        <v>229</v>
+      </c>
+      <c r="N36" s="10"/>
+      <c r="O36" s="22" t="s">
+        <v>225</v>
+      </c>
+      <c r="P36" s="10" t="s">
+        <v>201</v>
+      </c>
+      <c r="Q36" s="27"/>
+      <c r="R36" s="10"/>
+      <c r="S36" s="10"/>
+      <c r="T36" s="10"/>
+    </row>
+    <row r="37" s="2" customFormat="1" ht="24.95" customHeight="1" spans="1:20">
+      <c r="A37" s="10" t="s">
+        <v>230</v>
+      </c>
+      <c r="B37" s="10" t="s">
+        <v>219</v>
+      </c>
+      <c r="C37" s="10" t="s">
+        <v>220</v>
+      </c>
+      <c r="D37" s="10" t="s">
+        <v>193</v>
+      </c>
+      <c r="E37" s="10" t="s">
+        <v>231</v>
+      </c>
+      <c r="F37" s="10" t="s">
+        <v>222</v>
+      </c>
+      <c r="G37" s="10"/>
+      <c r="H37" s="10"/>
+      <c r="I37" s="21" t="s">
+        <v>196</v>
+      </c>
+      <c r="J37" s="10"/>
+      <c r="K37" s="10" t="s">
+        <v>232</v>
+      </c>
+      <c r="L37" s="10" t="s">
+        <v>198</v>
+      </c>
+      <c r="M37" s="21" t="s">
+        <v>229</v>
+      </c>
+      <c r="N37" s="10"/>
+      <c r="O37" s="22" t="s">
+        <v>225</v>
+      </c>
+      <c r="P37" s="10" t="s">
+        <v>201</v>
+      </c>
+      <c r="Q37" s="27"/>
+      <c r="R37" s="10"/>
+      <c r="S37" s="10"/>
+      <c r="T37" s="10"/>
+    </row>
+    <row r="38" s="2" customFormat="1" ht="24.95" customHeight="1" spans="1:20">
+      <c r="A38" s="10" t="s">
+        <v>233</v>
+      </c>
+      <c r="B38" s="10" t="s">
+        <v>219</v>
+      </c>
+      <c r="C38" s="10" t="s">
+        <v>220</v>
+      </c>
+      <c r="D38" s="10" t="s">
+        <v>193</v>
+      </c>
+      <c r="E38" s="10" t="s">
+        <v>234</v>
+      </c>
+      <c r="F38" s="10" t="s">
+        <v>222</v>
+      </c>
+      <c r="G38" s="10"/>
+      <c r="H38" s="10"/>
+      <c r="I38" s="21" t="s">
+        <v>196</v>
+      </c>
+      <c r="J38" s="10"/>
+      <c r="K38" s="10" t="s">
+        <v>235</v>
+      </c>
+      <c r="L38" s="10" t="s">
+        <v>198</v>
+      </c>
+      <c r="M38" s="21" t="s">
+        <v>229</v>
+      </c>
+      <c r="N38" s="10"/>
+      <c r="O38" s="22" t="s">
+        <v>225</v>
+      </c>
+      <c r="P38" s="10" t="s">
+        <v>201</v>
+      </c>
+      <c r="Q38" s="27"/>
+      <c r="R38" s="10"/>
+      <c r="S38" s="10"/>
+      <c r="T38" s="10"/>
+    </row>
+    <row r="39" s="2" customFormat="1" ht="24.95" customHeight="1" spans="1:20">
+      <c r="A39" s="10" t="s">
+        <v>236</v>
+      </c>
+      <c r="B39" s="10" t="s">
+        <v>219</v>
+      </c>
+      <c r="C39" s="10" t="s">
+        <v>220</v>
+      </c>
+      <c r="D39" s="10" t="s">
+        <v>193</v>
+      </c>
+      <c r="E39" s="10" t="s">
+        <v>237</v>
+      </c>
+      <c r="F39" s="10" t="s">
+        <v>222</v>
+      </c>
+      <c r="G39" s="10"/>
+      <c r="H39" s="10"/>
+      <c r="I39" s="21" t="s">
+        <v>196</v>
+      </c>
+      <c r="J39" s="10"/>
+      <c r="K39" s="10" t="s">
+        <v>238</v>
+      </c>
+      <c r="L39" s="10" t="s">
+        <v>198</v>
+      </c>
+      <c r="M39" s="21" t="s">
+        <v>229</v>
+      </c>
+      <c r="N39" s="10"/>
+      <c r="O39" s="22" t="s">
+        <v>225</v>
+      </c>
+      <c r="P39" s="10" t="s">
+        <v>201</v>
+      </c>
+      <c r="Q39" s="27"/>
+      <c r="R39" s="10"/>
+      <c r="S39" s="10"/>
+      <c r="T39" s="10"/>
+    </row>
+    <row r="40" s="2" customFormat="1" ht="24.95" customHeight="1" spans="1:20">
+      <c r="A40" s="10" t="s">
+        <v>239</v>
+      </c>
+      <c r="B40" s="10" t="s">
+        <v>219</v>
+      </c>
+      <c r="C40" s="10" t="s">
+        <v>240</v>
+      </c>
+      <c r="D40" s="10" t="s">
+        <v>193</v>
+      </c>
+      <c r="E40" s="10" t="s">
+        <v>241</v>
+      </c>
+      <c r="F40" s="10" t="s">
+        <v>242</v>
+      </c>
+      <c r="G40" s="10"/>
+      <c r="H40" s="10"/>
+      <c r="I40" s="21" t="s">
+        <v>196</v>
+      </c>
+      <c r="J40" s="10"/>
+      <c r="K40" s="10"/>
+      <c r="L40" s="10" t="s">
+        <v>198</v>
+      </c>
+      <c r="M40" s="21" t="s">
+        <v>243</v>
+      </c>
+      <c r="N40" s="10"/>
+      <c r="O40" s="22" t="s">
+        <v>244</v>
+      </c>
+      <c r="P40" s="10" t="s">
+        <v>201</v>
+      </c>
+      <c r="Q40" s="27"/>
+      <c r="R40" s="10"/>
+      <c r="S40" s="10"/>
+      <c r="T40" s="10"/>
+    </row>
+    <row r="41" s="2" customFormat="1" ht="24.95" customHeight="1" spans="1:20">
+      <c r="A41" s="10" t="s">
+        <v>245</v>
+      </c>
+      <c r="B41" s="10" t="s">
+        <v>219</v>
+      </c>
+      <c r="C41" s="10" t="s">
+        <v>246</v>
+      </c>
+      <c r="D41" s="10" t="s">
+        <v>193</v>
+      </c>
+      <c r="E41" s="10" t="s">
+        <v>247</v>
+      </c>
+      <c r="F41" s="10" t="s">
+        <v>248</v>
+      </c>
+      <c r="G41" s="10"/>
+      <c r="H41" s="10"/>
+      <c r="I41" s="21" t="s">
+        <v>196</v>
+      </c>
+      <c r="J41" s="10"/>
+      <c r="K41" s="10" t="s">
+        <v>249</v>
+      </c>
+      <c r="L41" s="10" t="s">
+        <v>250</v>
+      </c>
+      <c r="M41" s="21" t="s">
+        <v>251</v>
+      </c>
+      <c r="N41" s="10"/>
+      <c r="O41" s="22" t="s">
+        <v>252</v>
+      </c>
+      <c r="P41" s="10" t="s">
+        <v>201</v>
+      </c>
+      <c r="Q41" s="27"/>
+      <c r="R41" s="10"/>
+      <c r="S41" s="10"/>
+      <c r="T41" s="10"/>
+    </row>
+    <row r="42" s="2" customFormat="1" ht="24.95" customHeight="1" spans="1:20">
+      <c r="A42" s="10" t="s">
+        <v>253</v>
+      </c>
+      <c r="B42" s="10" t="s">
+        <v>219</v>
+      </c>
+      <c r="C42" s="10" t="s">
+        <v>246</v>
+      </c>
+      <c r="D42" s="10" t="s">
+        <v>193</v>
+      </c>
+      <c r="E42" s="10" t="s">
+        <v>254</v>
+      </c>
+      <c r="F42" s="10" t="s">
+        <v>248</v>
+      </c>
+      <c r="G42" s="10"/>
+      <c r="H42" s="10"/>
+      <c r="I42" s="21" t="s">
+        <v>196</v>
+      </c>
+      <c r="J42" s="10"/>
+      <c r="K42" s="10" t="s">
+        <v>255</v>
+      </c>
+      <c r="L42" s="10" t="s">
+        <v>198</v>
+      </c>
+      <c r="M42" s="21" t="s">
+        <v>256</v>
+      </c>
+      <c r="N42" s="10"/>
+      <c r="O42" s="22" t="s">
+        <v>252</v>
+      </c>
+      <c r="P42" s="10" t="s">
+        <v>201</v>
+      </c>
+      <c r="Q42" s="27"/>
+      <c r="R42" s="10"/>
+      <c r="S42" s="10"/>
+      <c r="T42" s="10"/>
+    </row>
+    <row r="43" s="6" customFormat="1" ht="24.95" customHeight="1" spans="1:20">
+      <c r="A43" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="B43" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="C43" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="D43" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="E43" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="F43" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="G43" s="7"/>
+      <c r="H43" s="7"/>
+      <c r="I43" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="J43" s="7"/>
+      <c r="K43" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="L43" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="M43" s="23" t="s">
+        <v>251</v>
+      </c>
+      <c r="N43" s="7"/>
+      <c r="O43" s="24" t="s">
+        <v>262</v>
+      </c>
+      <c r="P43" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="Q43" s="1"/>
+      <c r="R43" s="7"/>
+      <c r="S43" s="7"/>
+      <c r="T43" s="7"/>
+    </row>
+    <row r="44" s="6" customFormat="1" ht="24.95" customHeight="1" spans="1:20">
+      <c r="A44" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="B44" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="C44" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="D44" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="E44" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="F44" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="G44" s="7"/>
+      <c r="H44" s="7"/>
+      <c r="I44" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="J44" s="7"/>
+      <c r="K44" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="L44" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="M44" s="23" t="s">
+        <v>266</v>
+      </c>
+      <c r="N44" s="7"/>
+      <c r="O44" s="24" t="s">
+        <v>262</v>
+      </c>
+      <c r="P44" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="Q44" s="1"/>
+      <c r="R44" s="7"/>
+      <c r="S44" s="7"/>
+      <c r="T44" s="7"/>
+    </row>
+    <row r="45" s="6" customFormat="1" ht="24.95" customHeight="1" spans="1:20">
+      <c r="A45" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="B45" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="C45" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="D45" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="E45" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="F45" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="G45" s="7"/>
+      <c r="H45" s="7"/>
+      <c r="I45" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="J45" s="7"/>
+      <c r="K45" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="L45" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="M45" s="23" t="s">
+        <v>270</v>
+      </c>
+      <c r="N45" s="7"/>
+      <c r="O45" s="24" t="s">
+        <v>262</v>
+      </c>
+      <c r="P45" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="Q45" s="1"/>
+      <c r="R45" s="7"/>
+      <c r="S45" s="7"/>
+      <c r="T45" s="7"/>
+    </row>
+    <row r="46" s="7" customFormat="1" ht="24.95" customHeight="1" spans="1:18">
+      <c r="A46" s="14" t="s">
+        <v>271</v>
+      </c>
+      <c r="B46" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="C46" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="D46" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="E29" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="H29" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="I29" s="7" t="s">
+      <c r="E46" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="F46" s="15" t="s">
+        <v>275</v>
+      </c>
+      <c r="G46" s="15"/>
+      <c r="I46" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="K46" s="15"/>
+      <c r="L46" s="23" t="s">
+        <v>276</v>
+      </c>
+      <c r="M46" s="15" t="s">
+        <v>129</v>
+      </c>
+      <c r="O46" s="24" t="s">
+        <v>277</v>
+      </c>
+      <c r="P46" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="R46" s="24" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="47" s="7" customFormat="1" ht="24.95" customHeight="1" spans="1:18">
+      <c r="A47" s="14" t="s">
+        <v>280</v>
+      </c>
+      <c r="B47" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="C47" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="D47" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E47" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="F47" s="15" t="s">
+        <v>283</v>
+      </c>
+      <c r="G47" s="15"/>
+      <c r="I47" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="L29" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="M29" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="O29" s="24" t="s">
-        <v>188</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="30" s="7" customFormat="1" ht="24.95" customHeight="1" spans="1:20">
-      <c r="A30" s="8" t="s">
-        <v>192</v>
-      </c>
-      <c r="B30" s="8" t="s">
-        <v>193</v>
-      </c>
-      <c r="C30" s="8" t="s">
-        <v>193</v>
-      </c>
-      <c r="D30" s="8" t="s">
-        <v>194</v>
-      </c>
-      <c r="E30" s="8" t="s">
-        <v>195</v>
-      </c>
-      <c r="F30" s="8" t="s">
-        <v>196</v>
-      </c>
-      <c r="G30" s="8"/>
-      <c r="H30" s="8"/>
-      <c r="I30" s="25" t="s">
-        <v>197</v>
-      </c>
-      <c r="J30" s="8"/>
-      <c r="K30" s="8" t="s">
-        <v>198</v>
-      </c>
-      <c r="L30" s="8" t="s">
-        <v>199</v>
-      </c>
-      <c r="M30" s="25" t="s">
-        <v>200</v>
-      </c>
-      <c r="N30" s="8"/>
-      <c r="O30" s="26" t="s">
-        <v>201</v>
-      </c>
-      <c r="P30" s="8" t="s">
-        <v>202</v>
-      </c>
-      <c r="Q30" s="28"/>
-      <c r="R30" s="8"/>
-      <c r="S30" s="8"/>
-      <c r="T30" s="8"/>
-    </row>
-    <row r="31" s="7" customFormat="1" ht="24.95" customHeight="1" spans="1:20">
-      <c r="A31" s="8" t="s">
-        <v>203</v>
-      </c>
-      <c r="B31" s="8" t="s">
-        <v>193</v>
-      </c>
-      <c r="C31" s="8" t="s">
-        <v>193</v>
-      </c>
-      <c r="D31" s="8" t="s">
-        <v>194</v>
-      </c>
-      <c r="E31" s="8" t="s">
-        <v>204</v>
-      </c>
-      <c r="F31" s="8" t="s">
-        <v>196</v>
-      </c>
-      <c r="G31" s="8"/>
-      <c r="H31" s="8"/>
-      <c r="I31" s="25" t="s">
-        <v>197</v>
-      </c>
-      <c r="J31" s="8"/>
-      <c r="K31" s="8" t="s">
-        <v>198</v>
-      </c>
-      <c r="L31" s="8" t="s">
-        <v>199</v>
-      </c>
-      <c r="M31" s="25" t="s">
-        <v>205</v>
-      </c>
-      <c r="N31" s="8"/>
-      <c r="O31" s="26" t="s">
-        <v>201</v>
-      </c>
-      <c r="P31" s="8" t="s">
-        <v>202</v>
-      </c>
-      <c r="Q31" s="28"/>
-      <c r="R31" s="8"/>
-      <c r="S31" s="8"/>
-      <c r="T31" s="8"/>
-    </row>
-    <row r="32" s="7" customFormat="1" ht="24.95" customHeight="1" spans="1:20">
-      <c r="A32" s="8" t="s">
-        <v>206</v>
-      </c>
-      <c r="B32" s="8" t="s">
-        <v>193</v>
-      </c>
-      <c r="C32" s="8" t="s">
-        <v>193</v>
-      </c>
-      <c r="D32" s="8" t="s">
-        <v>194</v>
-      </c>
-      <c r="E32" s="8" t="s">
-        <v>207</v>
-      </c>
-      <c r="F32" s="8" t="s">
-        <v>196</v>
-      </c>
-      <c r="G32" s="8"/>
-      <c r="H32" s="8"/>
-      <c r="I32" s="25" t="s">
-        <v>197</v>
-      </c>
-      <c r="J32" s="8"/>
-      <c r="K32" s="8" t="s">
-        <v>198</v>
-      </c>
-      <c r="L32" s="8" t="s">
-        <v>199</v>
-      </c>
-      <c r="M32" s="25" t="s">
-        <v>200</v>
-      </c>
-      <c r="N32" s="8"/>
-      <c r="O32" s="26" t="s">
-        <v>201</v>
-      </c>
-      <c r="P32" s="8" t="s">
-        <v>202</v>
-      </c>
-      <c r="Q32" s="1"/>
-      <c r="R32" s="8"/>
-      <c r="S32" s="8"/>
-      <c r="T32" s="8"/>
-    </row>
-    <row r="33" s="7" customFormat="1" ht="24.95" customHeight="1" spans="1:20">
-      <c r="A33" s="8" t="s">
-        <v>208</v>
-      </c>
-      <c r="B33" s="8" t="s">
-        <v>209</v>
-      </c>
-      <c r="C33" s="8" t="s">
-        <v>210</v>
-      </c>
-      <c r="D33" s="8" t="s">
-        <v>194</v>
-      </c>
-      <c r="E33" s="8" t="s">
-        <v>211</v>
-      </c>
-      <c r="F33" s="8" t="s">
-        <v>212</v>
-      </c>
-      <c r="G33" s="8"/>
-      <c r="H33" s="8"/>
-      <c r="I33" s="25" t="s">
-        <v>197</v>
-      </c>
-      <c r="J33" s="8"/>
-      <c r="K33" s="8" t="s">
-        <v>213</v>
-      </c>
-      <c r="L33" s="8" t="s">
-        <v>199</v>
-      </c>
-      <c r="M33" s="25" t="s">
-        <v>214</v>
-      </c>
-      <c r="N33" s="8"/>
-      <c r="O33" s="26" t="s">
-        <v>215</v>
-      </c>
-      <c r="P33" s="8" t="s">
-        <v>202</v>
-      </c>
-      <c r="Q33" s="1"/>
-      <c r="R33" s="8"/>
-      <c r="S33" s="8"/>
-      <c r="T33" s="8"/>
-    </row>
-    <row r="34" s="7" customFormat="1" ht="24.95" customHeight="1" spans="1:20">
-      <c r="A34" s="8" t="s">
-        <v>216</v>
-      </c>
-      <c r="B34" s="8" t="s">
-        <v>209</v>
-      </c>
-      <c r="C34" s="8" t="s">
-        <v>210</v>
-      </c>
-      <c r="D34" s="8" t="s">
-        <v>194</v>
-      </c>
-      <c r="E34" s="8" t="s">
-        <v>217</v>
-      </c>
-      <c r="F34" s="8" t="s">
-        <v>212</v>
-      </c>
-      <c r="G34" s="8"/>
-      <c r="H34" s="8"/>
-      <c r="I34" s="25" t="s">
-        <v>197</v>
-      </c>
-      <c r="J34" s="8"/>
-      <c r="K34" s="8" t="s">
-        <v>213</v>
-      </c>
-      <c r="L34" s="8" t="s">
-        <v>199</v>
-      </c>
-      <c r="M34" s="25" t="s">
-        <v>218</v>
-      </c>
-      <c r="N34" s="8"/>
-      <c r="O34" s="26" t="s">
-        <v>215</v>
-      </c>
-      <c r="P34" s="8" t="s">
-        <v>202</v>
-      </c>
-      <c r="Q34" s="1"/>
-      <c r="R34" s="8"/>
-      <c r="S34" s="8"/>
-      <c r="T34" s="8"/>
-    </row>
-    <row r="35" s="7" customFormat="1" ht="24.95" customHeight="1" spans="1:20">
-      <c r="A35" s="8" t="s">
-        <v>219</v>
-      </c>
-      <c r="B35" s="8" t="s">
-        <v>220</v>
-      </c>
-      <c r="C35" s="8" t="s">
-        <v>221</v>
-      </c>
-      <c r="D35" s="8" t="s">
-        <v>194</v>
-      </c>
-      <c r="E35" s="8" t="s">
-        <v>222</v>
-      </c>
-      <c r="F35" s="8" t="s">
-        <v>223</v>
-      </c>
-      <c r="G35" s="8"/>
-      <c r="H35" s="8"/>
-      <c r="I35" s="25" t="s">
-        <v>197</v>
-      </c>
-      <c r="J35" s="8"/>
-      <c r="K35" s="8" t="s">
-        <v>224</v>
-      </c>
-      <c r="L35" s="8" t="s">
-        <v>199</v>
-      </c>
-      <c r="M35" s="25" t="s">
-        <v>225</v>
-      </c>
-      <c r="N35" s="8"/>
-      <c r="O35" s="26" t="s">
-        <v>226</v>
-      </c>
-      <c r="P35" s="8" t="s">
-        <v>202</v>
-      </c>
-      <c r="Q35" s="1"/>
-      <c r="R35" s="8"/>
-      <c r="S35" s="8"/>
-      <c r="T35" s="8"/>
-    </row>
-    <row r="36" s="7" customFormat="1" ht="24.95" customHeight="1" spans="1:20">
-      <c r="A36" s="8" t="s">
-        <v>227</v>
-      </c>
-      <c r="B36" s="8" t="s">
-        <v>220</v>
-      </c>
-      <c r="C36" s="8" t="s">
-        <v>221</v>
-      </c>
-      <c r="D36" s="8" t="s">
-        <v>194</v>
-      </c>
-      <c r="E36" s="8" t="s">
-        <v>228</v>
-      </c>
-      <c r="F36" s="8" t="s">
-        <v>223</v>
-      </c>
-      <c r="G36" s="8"/>
-      <c r="H36" s="8"/>
-      <c r="I36" s="25" t="s">
-        <v>197</v>
-      </c>
-      <c r="J36" s="8"/>
-      <c r="K36" s="8" t="s">
-        <v>229</v>
-      </c>
-      <c r="L36" s="8" t="s">
-        <v>199</v>
-      </c>
-      <c r="M36" s="25" t="s">
-        <v>230</v>
-      </c>
-      <c r="N36" s="8"/>
-      <c r="O36" s="26" t="s">
-        <v>226</v>
-      </c>
-      <c r="P36" s="8" t="s">
-        <v>202</v>
-      </c>
-      <c r="Q36" s="1"/>
-      <c r="R36" s="8"/>
-      <c r="S36" s="8"/>
-      <c r="T36" s="8"/>
-    </row>
-    <row r="37" s="7" customFormat="1" ht="24.95" customHeight="1" spans="1:20">
-      <c r="A37" s="8" t="s">
-        <v>231</v>
-      </c>
-      <c r="B37" s="8" t="s">
-        <v>220</v>
-      </c>
-      <c r="C37" s="8" t="s">
-        <v>221</v>
-      </c>
-      <c r="D37" s="8" t="s">
-        <v>194</v>
-      </c>
-      <c r="E37" s="8" t="s">
-        <v>232</v>
-      </c>
-      <c r="F37" s="8" t="s">
-        <v>223</v>
-      </c>
-      <c r="G37" s="8"/>
-      <c r="H37" s="8"/>
-      <c r="I37" s="25" t="s">
-        <v>197</v>
-      </c>
-      <c r="J37" s="8"/>
-      <c r="K37" s="8" t="s">
-        <v>233</v>
-      </c>
-      <c r="L37" s="8" t="s">
-        <v>199</v>
-      </c>
-      <c r="M37" s="25" t="s">
-        <v>230</v>
-      </c>
-      <c r="N37" s="8"/>
-      <c r="O37" s="26" t="s">
-        <v>226</v>
-      </c>
-      <c r="P37" s="8" t="s">
-        <v>202</v>
-      </c>
-      <c r="Q37" s="1"/>
-      <c r="R37" s="8"/>
-      <c r="S37" s="8"/>
-      <c r="T37" s="8"/>
-    </row>
-    <row r="38" s="7" customFormat="1" ht="24.95" customHeight="1" spans="1:20">
-      <c r="A38" s="8" t="s">
-        <v>234</v>
-      </c>
-      <c r="B38" s="8" t="s">
-        <v>220</v>
-      </c>
-      <c r="C38" s="8" t="s">
-        <v>221</v>
-      </c>
-      <c r="D38" s="8" t="s">
-        <v>194</v>
-      </c>
-      <c r="E38" s="8" t="s">
-        <v>235</v>
-      </c>
-      <c r="F38" s="8" t="s">
-        <v>223</v>
-      </c>
-      <c r="G38" s="8"/>
-      <c r="H38" s="8"/>
-      <c r="I38" s="25" t="s">
-        <v>197</v>
-      </c>
-      <c r="J38" s="8"/>
-      <c r="K38" s="8" t="s">
-        <v>236</v>
-      </c>
-      <c r="L38" s="8" t="s">
-        <v>199</v>
-      </c>
-      <c r="M38" s="25" t="s">
-        <v>230</v>
-      </c>
-      <c r="N38" s="8"/>
-      <c r="O38" s="26" t="s">
-        <v>226</v>
-      </c>
-      <c r="P38" s="8" t="s">
-        <v>202</v>
-      </c>
-      <c r="Q38" s="1"/>
-      <c r="R38" s="8"/>
-      <c r="S38" s="8"/>
-      <c r="T38" s="8"/>
-    </row>
-    <row r="39" s="7" customFormat="1" ht="24.95" customHeight="1" spans="1:20">
-      <c r="A39" s="8" t="s">
-        <v>237</v>
-      </c>
-      <c r="B39" s="8" t="s">
-        <v>220</v>
-      </c>
-      <c r="C39" s="8" t="s">
-        <v>221</v>
-      </c>
-      <c r="D39" s="8" t="s">
-        <v>194</v>
-      </c>
-      <c r="E39" s="8" t="s">
-        <v>238</v>
-      </c>
-      <c r="F39" s="8" t="s">
-        <v>223</v>
-      </c>
-      <c r="G39" s="8"/>
-      <c r="H39" s="8"/>
-      <c r="I39" s="25" t="s">
-        <v>197</v>
-      </c>
-      <c r="J39" s="8"/>
-      <c r="K39" s="8" t="s">
-        <v>239</v>
-      </c>
-      <c r="L39" s="8" t="s">
-        <v>199</v>
-      </c>
-      <c r="M39" s="25" t="s">
-        <v>230</v>
-      </c>
-      <c r="N39" s="8"/>
-      <c r="O39" s="26" t="s">
-        <v>226</v>
-      </c>
-      <c r="P39" s="8" t="s">
-        <v>202</v>
-      </c>
-      <c r="Q39" s="1"/>
-      <c r="R39" s="8"/>
-      <c r="S39" s="8"/>
-      <c r="T39" s="8"/>
-    </row>
-    <row r="40" s="7" customFormat="1" ht="24.95" customHeight="1" spans="1:20">
-      <c r="A40" s="8" t="s">
-        <v>240</v>
-      </c>
-      <c r="B40" s="8" t="s">
-        <v>220</v>
-      </c>
-      <c r="C40" s="8" t="s">
-        <v>241</v>
-      </c>
-      <c r="D40" s="8" t="s">
-        <v>194</v>
-      </c>
-      <c r="E40" s="8" t="s">
-        <v>242</v>
-      </c>
-      <c r="F40" s="8" t="s">
-        <v>243</v>
-      </c>
-      <c r="G40" s="8"/>
-      <c r="H40" s="8"/>
-      <c r="I40" s="25" t="s">
-        <v>197</v>
-      </c>
-      <c r="J40" s="8"/>
-      <c r="K40" s="8"/>
-      <c r="L40" s="8" t="s">
-        <v>199</v>
-      </c>
-      <c r="M40" s="25" t="s">
-        <v>244</v>
-      </c>
-      <c r="N40" s="8"/>
-      <c r="O40" s="26" t="s">
-        <v>245</v>
-      </c>
-      <c r="P40" s="8" t="s">
-        <v>202</v>
-      </c>
-      <c r="Q40" s="1"/>
-      <c r="R40" s="8"/>
-      <c r="S40" s="8"/>
-      <c r="T40" s="8"/>
-    </row>
-    <row r="41" s="7" customFormat="1" ht="24.95" customHeight="1" spans="1:20">
-      <c r="A41" s="8" t="s">
-        <v>246</v>
-      </c>
-      <c r="B41" s="8" t="s">
-        <v>220</v>
-      </c>
-      <c r="C41" s="8" t="s">
-        <v>247</v>
-      </c>
-      <c r="D41" s="8" t="s">
-        <v>194</v>
-      </c>
-      <c r="E41" s="8" t="s">
-        <v>248</v>
-      </c>
-      <c r="F41" s="8" t="s">
-        <v>249</v>
-      </c>
-      <c r="G41" s="8"/>
-      <c r="H41" s="8"/>
-      <c r="I41" s="25" t="s">
-        <v>197</v>
-      </c>
-      <c r="J41" s="8"/>
-      <c r="K41" s="8" t="s">
-        <v>250</v>
-      </c>
-      <c r="L41" s="8" t="s">
-        <v>251</v>
-      </c>
-      <c r="M41" s="25" t="s">
-        <v>252</v>
-      </c>
-      <c r="N41" s="8"/>
-      <c r="O41" s="26" t="s">
-        <v>253</v>
-      </c>
-      <c r="P41" s="8" t="s">
-        <v>202</v>
-      </c>
-      <c r="Q41" s="1"/>
-      <c r="R41" s="8"/>
-      <c r="S41" s="8"/>
-      <c r="T41" s="8"/>
-    </row>
-    <row r="42" s="7" customFormat="1" ht="24.95" customHeight="1" spans="1:20">
-      <c r="A42" s="8" t="s">
-        <v>254</v>
-      </c>
-      <c r="B42" s="8" t="s">
-        <v>220</v>
-      </c>
-      <c r="C42" s="8" t="s">
-        <v>247</v>
-      </c>
-      <c r="D42" s="8" t="s">
-        <v>194</v>
-      </c>
-      <c r="E42" s="8" t="s">
-        <v>255</v>
-      </c>
-      <c r="F42" s="8" t="s">
-        <v>249</v>
-      </c>
-      <c r="G42" s="8"/>
-      <c r="H42" s="8"/>
-      <c r="I42" s="25" t="s">
-        <v>197</v>
-      </c>
-      <c r="J42" s="8"/>
-      <c r="K42" s="8" t="s">
-        <v>256</v>
-      </c>
-      <c r="L42" s="8" t="s">
-        <v>199</v>
-      </c>
-      <c r="M42" s="25" t="s">
-        <v>257</v>
-      </c>
-      <c r="N42" s="8"/>
-      <c r="O42" s="26" t="s">
-        <v>253</v>
-      </c>
-      <c r="P42" s="8" t="s">
-        <v>202</v>
-      </c>
-      <c r="Q42" s="1"/>
-      <c r="R42" s="8"/>
-      <c r="S42" s="8"/>
-      <c r="T42" s="8"/>
-    </row>
-    <row r="43" s="7" customFormat="1" ht="24.95" customHeight="1" spans="1:20">
-      <c r="A43" s="8" t="s">
-        <v>258</v>
-      </c>
-      <c r="B43" s="8" t="s">
-        <v>220</v>
-      </c>
-      <c r="C43" s="8" t="s">
-        <v>259</v>
-      </c>
-      <c r="D43" s="8" t="s">
-        <v>194</v>
-      </c>
-      <c r="E43" s="8" t="s">
-        <v>248</v>
-      </c>
-      <c r="F43" s="8" t="s">
-        <v>260</v>
-      </c>
-      <c r="G43" s="8"/>
-      <c r="H43" s="8"/>
-      <c r="I43" s="8" t="s">
-        <v>261</v>
-      </c>
-      <c r="J43" s="8"/>
-      <c r="K43" s="8" t="s">
-        <v>262</v>
-      </c>
-      <c r="L43" s="8" t="s">
-        <v>263</v>
-      </c>
-      <c r="M43" s="25" t="s">
-        <v>252</v>
-      </c>
-      <c r="N43" s="8"/>
-      <c r="O43" s="26" t="s">
-        <v>264</v>
-      </c>
-      <c r="P43" s="8" t="s">
-        <v>202</v>
-      </c>
-      <c r="Q43" s="1"/>
-      <c r="R43" s="8"/>
-      <c r="S43" s="8"/>
-      <c r="T43" s="8"/>
-    </row>
-    <row r="44" s="7" customFormat="1" ht="24.95" customHeight="1" spans="1:20">
-      <c r="A44" s="8" t="s">
-        <v>265</v>
-      </c>
-      <c r="B44" s="8" t="s">
-        <v>220</v>
-      </c>
-      <c r="C44" s="8" t="s">
-        <v>259</v>
-      </c>
-      <c r="D44" s="8" t="s">
-        <v>194</v>
-      </c>
-      <c r="E44" s="8" t="s">
-        <v>266</v>
-      </c>
-      <c r="F44" s="8" t="s">
-        <v>260</v>
-      </c>
-      <c r="G44" s="8"/>
-      <c r="H44" s="8"/>
-      <c r="I44" s="8" t="s">
-        <v>261</v>
-      </c>
-      <c r="J44" s="8"/>
-      <c r="K44" s="8" t="s">
-        <v>267</v>
-      </c>
-      <c r="L44" s="8" t="s">
-        <v>263</v>
-      </c>
-      <c r="M44" s="25" t="s">
-        <v>268</v>
-      </c>
-      <c r="N44" s="8"/>
-      <c r="O44" s="26" t="s">
-        <v>264</v>
-      </c>
-      <c r="P44" s="8" t="s">
-        <v>202</v>
-      </c>
-      <c r="Q44" s="1"/>
-      <c r="R44" s="8"/>
-      <c r="S44" s="8"/>
-      <c r="T44" s="8"/>
-    </row>
-    <row r="45" s="7" customFormat="1" ht="24.95" customHeight="1" spans="1:20">
-      <c r="A45" s="8" t="s">
-        <v>269</v>
-      </c>
-      <c r="B45" s="8" t="s">
-        <v>220</v>
-      </c>
-      <c r="C45" s="8" t="s">
-        <v>259</v>
-      </c>
-      <c r="D45" s="8" t="s">
-        <v>194</v>
-      </c>
-      <c r="E45" s="8" t="s">
-        <v>270</v>
-      </c>
-      <c r="F45" s="8" t="s">
-        <v>260</v>
-      </c>
-      <c r="G45" s="8"/>
-      <c r="H45" s="8"/>
-      <c r="I45" s="8" t="s">
-        <v>261</v>
-      </c>
-      <c r="J45" s="8"/>
-      <c r="K45" s="8" t="s">
-        <v>271</v>
-      </c>
-      <c r="L45" s="8" t="s">
-        <v>270</v>
-      </c>
-      <c r="M45" s="25" t="s">
+      <c r="K47" s="15" t="s">
+        <v>284</v>
+      </c>
+      <c r="L47" s="23" t="s">
+        <v>276</v>
+      </c>
+      <c r="M47" s="15" t="s">
+        <v>129</v>
+      </c>
+      <c r="O47" s="24" t="s">
+        <v>285</v>
+      </c>
+      <c r="P47" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="R47" s="24" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="48" s="7" customFormat="1" ht="24.95" customHeight="1" spans="1:18">
+      <c r="A48" s="14" t="s">
+        <v>286</v>
+      </c>
+      <c r="B48" s="7" t="s">
         <v>272</v>
       </c>
-      <c r="N45" s="8"/>
-      <c r="O45" s="26" t="s">
-        <v>264</v>
-      </c>
-      <c r="P45" s="8" t="s">
-        <v>202</v>
-      </c>
-      <c r="Q45" s="1"/>
-      <c r="R45" s="8"/>
-      <c r="S45" s="8"/>
-      <c r="T45" s="8"/>
-    </row>
-    <row r="46" s="8" customFormat="1" ht="24.95" customHeight="1" spans="1:18">
-      <c r="A46" s="16" t="s">
-        <v>273</v>
-      </c>
-      <c r="B46" s="8" t="s">
-        <v>274</v>
-      </c>
-      <c r="C46" s="8" t="s">
-        <v>275</v>
-      </c>
-      <c r="D46" s="8" t="s">
+      <c r="C48" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="D48" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E48" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="F48" s="15" t="s">
+        <v>283</v>
+      </c>
+      <c r="G48" s="15"/>
+      <c r="I48" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="K48" s="15" t="s">
+        <v>288</v>
+      </c>
+      <c r="L48" s="23" t="s">
+        <v>276</v>
+      </c>
+      <c r="M48" s="15" t="s">
+        <v>129</v>
+      </c>
+      <c r="O48" s="25" t="s">
+        <v>285</v>
+      </c>
+      <c r="P48" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="R48" s="24" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="49" s="7" customFormat="1" ht="24.95" customHeight="1" spans="1:18">
+      <c r="A49" s="14" t="s">
+        <v>289</v>
+      </c>
+      <c r="B49" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="C49" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="D49" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E49" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="F49" s="15" t="s">
+        <v>283</v>
+      </c>
+      <c r="G49" s="15"/>
+      <c r="I49" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="K49" s="15" t="s">
+        <v>291</v>
+      </c>
+      <c r="L49" s="23" t="s">
+        <v>276</v>
+      </c>
+      <c r="M49" s="15" t="s">
+        <v>129</v>
+      </c>
+      <c r="O49" s="25" t="s">
+        <v>285</v>
+      </c>
+      <c r="P49" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="R49" s="24" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="50" s="7" customFormat="1" ht="24.95" customHeight="1" spans="1:18">
+      <c r="A50" s="14" t="s">
+        <v>292</v>
+      </c>
+      <c r="B50" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="C50" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="D50" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="E46" s="8" t="s">
+      <c r="E50" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="F50" s="15" t="s">
+        <v>283</v>
+      </c>
+      <c r="G50" s="15"/>
+      <c r="I50" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="K50" s="15" t="s">
+        <v>294</v>
+      </c>
+      <c r="L50" s="23" t="s">
         <v>276</v>
       </c>
-      <c r="F46" s="17" t="s">
-        <v>277</v>
-      </c>
-      <c r="G46" s="17"/>
-      <c r="I46" s="8" t="s">
+      <c r="M50" s="15" t="s">
+        <v>129</v>
+      </c>
+      <c r="O50" s="25" t="s">
+        <v>285</v>
+      </c>
+      <c r="P50" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="R50" s="24" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="51" s="7" customFormat="1" ht="24.95" customHeight="1" spans="1:18">
+      <c r="A51" s="14" t="s">
+        <v>295</v>
+      </c>
+      <c r="B51" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="C51" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="D51" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="E51" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="F51" s="15" t="s">
+        <v>283</v>
+      </c>
+      <c r="G51" s="15"/>
+      <c r="I51" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="K51" s="15" t="s">
+        <v>297</v>
+      </c>
+      <c r="L51" s="23" t="s">
+        <v>298</v>
+      </c>
+      <c r="M51" s="15" t="s">
+        <v>299</v>
+      </c>
+      <c r="O51" s="24" t="s">
+        <v>285</v>
+      </c>
+      <c r="P51" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="R51" s="24" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="52" s="7" customFormat="1" ht="24.95" customHeight="1" spans="1:18">
+      <c r="A52" s="14" t="s">
+        <v>300</v>
+      </c>
+      <c r="B52" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="C52" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="D52" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E52" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="F52" s="15" t="s">
+        <v>303</v>
+      </c>
+      <c r="G52" s="15" t="s">
+        <v>304</v>
+      </c>
+      <c r="H52" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="I52" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="K46" s="17"/>
-      <c r="L46" s="25" t="s">
+      <c r="K52" s="15" t="s">
+        <v>306</v>
+      </c>
+      <c r="L52" s="23" t="s">
+        <v>276</v>
+      </c>
+      <c r="M52" s="15" t="s">
+        <v>129</v>
+      </c>
+      <c r="O52" s="24" t="s">
+        <v>307</v>
+      </c>
+      <c r="P52" s="7" t="s">
         <v>278</v>
       </c>
-      <c r="M46" s="17" t="s">
+      <c r="R52" s="24" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="53" s="7" customFormat="1" ht="24.95" customHeight="1" spans="1:18">
+      <c r="A53" s="14" t="s">
+        <v>308</v>
+      </c>
+      <c r="B53" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="C53" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="D53" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="E53" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="F53" s="15" t="s">
+        <v>303</v>
+      </c>
+      <c r="G53" s="15"/>
+      <c r="H53" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="I53" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="K53" s="15" t="s">
+        <v>306</v>
+      </c>
+      <c r="L53" s="23" t="s">
+        <v>276</v>
+      </c>
+      <c r="M53" s="15" t="s">
         <v>129</v>
       </c>
-      <c r="O46" s="26" t="s">
+      <c r="O53" s="24" t="s">
+        <v>307</v>
+      </c>
+      <c r="P53" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="R53" s="24" t="s">
         <v>279</v>
       </c>
-      <c r="P46" s="8" t="s">
-        <v>280</v>
-      </c>
-      <c r="R46" s="26" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="47" s="8" customFormat="1" ht="24.95" customHeight="1" spans="1:18">
-      <c r="A47" s="16" t="s">
-        <v>282</v>
-      </c>
-      <c r="B47" s="8" t="s">
-        <v>274</v>
-      </c>
-      <c r="C47" s="8" t="s">
-        <v>283</v>
-      </c>
-      <c r="D47" s="8" t="s">
+    </row>
+    <row r="54" s="7" customFormat="1" ht="24.95" customHeight="1" spans="1:18">
+      <c r="A54" s="14" t="s">
+        <v>311</v>
+      </c>
+      <c r="B54" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="C54" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="D54" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="E54" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="F54" s="15" t="s">
+        <v>313</v>
+      </c>
+      <c r="G54" s="15" t="s">
+        <v>304</v>
+      </c>
+      <c r="H54" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="I54" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="K54" s="15" t="s">
+        <v>314</v>
+      </c>
+      <c r="L54" s="23" t="s">
+        <v>276</v>
+      </c>
+      <c r="M54" s="15" t="s">
+        <v>129</v>
+      </c>
+      <c r="O54" s="24" t="s">
+        <v>315</v>
+      </c>
+      <c r="P54" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="R54" s="24" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="55" s="7" customFormat="1" ht="24.95" customHeight="1" spans="1:18">
+      <c r="A55" s="14" t="s">
+        <v>316</v>
+      </c>
+      <c r="B55" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="C55" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="D55" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="E47" s="8" t="s">
-        <v>284</v>
-      </c>
-      <c r="F47" s="17" t="s">
-        <v>285</v>
-      </c>
-      <c r="G47" s="17"/>
-      <c r="I47" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="K47" s="17" t="s">
-        <v>286</v>
-      </c>
-      <c r="L47" s="25" t="s">
+      <c r="E55" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="F55" s="15" t="s">
+        <v>318</v>
+      </c>
+      <c r="G55" s="15" t="s">
+        <v>304</v>
+      </c>
+      <c r="H55" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="I55" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="K55" s="15" t="s">
+        <v>314</v>
+      </c>
+      <c r="L55" s="23" t="s">
+        <v>276</v>
+      </c>
+      <c r="M55" s="15" t="s">
+        <v>129</v>
+      </c>
+      <c r="O55" s="25" t="s">
+        <v>319</v>
+      </c>
+      <c r="P55" s="7" t="s">
         <v>278</v>
       </c>
-      <c r="M47" s="17" t="s">
+      <c r="R55" s="24" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="56" s="7" customFormat="1" ht="24.95" customHeight="1" spans="1:18">
+      <c r="A56" s="14" t="s">
+        <v>320</v>
+      </c>
+      <c r="B56" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="C56" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="D56" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E56" s="7" t="s">
+        <v>322</v>
+      </c>
+      <c r="F56" s="15" t="s">
+        <v>323</v>
+      </c>
+      <c r="G56" s="15" t="s">
+        <v>304</v>
+      </c>
+      <c r="H56" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="I56" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="K56" s="15"/>
+      <c r="L56" s="23" t="s">
+        <v>276</v>
+      </c>
+      <c r="M56" s="15" t="s">
         <v>129</v>
       </c>
-      <c r="O47" s="26" t="s">
-        <v>287</v>
-      </c>
-      <c r="P47" s="8" t="s">
-        <v>280</v>
-      </c>
-      <c r="R47" s="26" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="48" s="8" customFormat="1" ht="24.95" customHeight="1" spans="1:18">
-      <c r="A48" s="16" t="s">
-        <v>288</v>
-      </c>
-      <c r="B48" s="8" t="s">
-        <v>274</v>
-      </c>
-      <c r="C48" s="8" t="s">
-        <v>283</v>
-      </c>
-      <c r="D48" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="E48" s="8" t="s">
-        <v>289</v>
-      </c>
-      <c r="F48" s="17" t="s">
-        <v>285</v>
-      </c>
-      <c r="G48" s="17"/>
-      <c r="I48" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="K48" s="17" t="s">
-        <v>290</v>
-      </c>
-      <c r="L48" s="25" t="s">
+      <c r="N56" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="O56" s="24" t="s">
+        <v>326</v>
+      </c>
+      <c r="P56" s="7" t="s">
         <v>278</v>
       </c>
-      <c r="M48" s="17" t="s">
+      <c r="R56" s="24" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="57" s="7" customFormat="1" ht="24.95" customHeight="1" spans="1:18">
+      <c r="A57" s="14" t="s">
+        <v>327</v>
+      </c>
+      <c r="B57" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="C57" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="D57" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="E57" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="F57" s="15" t="s">
+        <v>323</v>
+      </c>
+      <c r="G57" s="15"/>
+      <c r="I57" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="K57" s="15"/>
+      <c r="L57" s="23" t="s">
+        <v>276</v>
+      </c>
+      <c r="M57" s="15" t="s">
         <v>129</v>
       </c>
-      <c r="O48" s="27" t="s">
-        <v>287</v>
-      </c>
-      <c r="P48" s="8" t="s">
-        <v>280</v>
-      </c>
-      <c r="R48" s="26" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="49" s="8" customFormat="1" ht="24.95" customHeight="1" spans="1:18">
-      <c r="A49" s="16" t="s">
-        <v>291</v>
-      </c>
-      <c r="B49" s="8" t="s">
-        <v>274</v>
-      </c>
-      <c r="C49" s="8" t="s">
-        <v>283</v>
-      </c>
-      <c r="D49" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="E49" s="8" t="s">
-        <v>292</v>
-      </c>
-      <c r="F49" s="17" t="s">
-        <v>285</v>
-      </c>
-      <c r="G49" s="17"/>
-      <c r="I49" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="K49" s="17" t="s">
-        <v>293</v>
-      </c>
-      <c r="L49" s="25" t="s">
+      <c r="N57" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="O57" s="24" t="s">
+        <v>326</v>
+      </c>
+      <c r="P57" s="7" t="s">
         <v>278</v>
       </c>
-      <c r="M49" s="17" t="s">
-        <v>129</v>
-      </c>
-      <c r="O49" s="27" t="s">
-        <v>287</v>
-      </c>
-      <c r="P49" s="8" t="s">
-        <v>280</v>
-      </c>
-      <c r="R49" s="26" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="50" s="8" customFormat="1" ht="24.95" customHeight="1" spans="1:18">
-      <c r="A50" s="16" t="s">
-        <v>294</v>
-      </c>
-      <c r="B50" s="8" t="s">
-        <v>274</v>
-      </c>
-      <c r="C50" s="8" t="s">
-        <v>283</v>
-      </c>
-      <c r="D50" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="E50" s="8" t="s">
-        <v>295</v>
-      </c>
-      <c r="F50" s="17" t="s">
-        <v>285</v>
-      </c>
-      <c r="G50" s="17"/>
-      <c r="I50" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="K50" s="17" t="s">
-        <v>296</v>
-      </c>
-      <c r="L50" s="25" t="s">
-        <v>278</v>
-      </c>
-      <c r="M50" s="17" t="s">
-        <v>129</v>
-      </c>
-      <c r="O50" s="27" t="s">
-        <v>287</v>
-      </c>
-      <c r="P50" s="8" t="s">
-        <v>280</v>
-      </c>
-      <c r="R50" s="26" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="51" s="8" customFormat="1" ht="24.95" customHeight="1" spans="1:18">
-      <c r="A51" s="16" t="s">
-        <v>297</v>
-      </c>
-      <c r="B51" s="8" t="s">
-        <v>274</v>
-      </c>
-      <c r="C51" s="8" t="s">
-        <v>283</v>
-      </c>
-      <c r="D51" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="E51" s="8" t="s">
-        <v>298</v>
-      </c>
-      <c r="F51" s="17" t="s">
-        <v>285</v>
-      </c>
-      <c r="G51" s="17"/>
-      <c r="I51" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="K51" s="17" t="s">
-        <v>299</v>
-      </c>
-      <c r="L51" s="25" t="s">
-        <v>300</v>
-      </c>
-      <c r="M51" s="17" t="s">
-        <v>301</v>
-      </c>
-      <c r="O51" s="26" t="s">
-        <v>287</v>
-      </c>
-      <c r="P51" s="8" t="s">
-        <v>280</v>
-      </c>
-      <c r="R51" s="26" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="52" s="8" customFormat="1" ht="24.95" customHeight="1" spans="1:18">
-      <c r="A52" s="16" t="s">
-        <v>302</v>
-      </c>
-      <c r="B52" s="8" t="s">
-        <v>274</v>
-      </c>
-      <c r="C52" s="8" t="s">
-        <v>303</v>
-      </c>
-      <c r="D52" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="E52" s="8" t="s">
-        <v>304</v>
-      </c>
-      <c r="F52" s="17" t="s">
-        <v>305</v>
-      </c>
-      <c r="G52" s="17" t="s">
-        <v>306</v>
-      </c>
-      <c r="H52" s="8" t="s">
-        <v>307</v>
-      </c>
-      <c r="I52" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="K52" s="17" t="s">
-        <v>308</v>
-      </c>
-      <c r="L52" s="25" t="s">
-        <v>278</v>
-      </c>
-      <c r="M52" s="17" t="s">
-        <v>129</v>
-      </c>
-      <c r="O52" s="26" t="s">
-        <v>309</v>
-      </c>
-      <c r="P52" s="8" t="s">
-        <v>280</v>
-      </c>
-      <c r="R52" s="26" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="53" s="8" customFormat="1" ht="24.95" customHeight="1" spans="1:18">
-      <c r="A53" s="16" t="s">
-        <v>310</v>
-      </c>
-      <c r="B53" s="8" t="s">
-        <v>274</v>
-      </c>
-      <c r="C53" s="8" t="s">
-        <v>303</v>
-      </c>
-      <c r="D53" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="E53" s="8" t="s">
-        <v>311</v>
-      </c>
-      <c r="F53" s="17" t="s">
-        <v>305</v>
-      </c>
-      <c r="G53" s="17"/>
-      <c r="H53" s="8" t="s">
-        <v>312</v>
-      </c>
-      <c r="I53" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="K53" s="17" t="s">
-        <v>308</v>
-      </c>
-      <c r="L53" s="25" t="s">
-        <v>278</v>
-      </c>
-      <c r="M53" s="17" t="s">
-        <v>129</v>
-      </c>
-      <c r="O53" s="26" t="s">
-        <v>309</v>
-      </c>
-      <c r="P53" s="8" t="s">
-        <v>280</v>
-      </c>
-      <c r="R53" s="26" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="54" s="8" customFormat="1" ht="24.95" customHeight="1" spans="1:18">
-      <c r="A54" s="16" t="s">
-        <v>313</v>
-      </c>
-      <c r="B54" s="8" t="s">
-        <v>274</v>
-      </c>
-      <c r="C54" s="8" t="s">
-        <v>314</v>
-      </c>
-      <c r="D54" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="E54" s="8" t="s">
-        <v>314</v>
-      </c>
-      <c r="F54" s="17" t="s">
-        <v>315</v>
-      </c>
-      <c r="G54" s="17" t="s">
-        <v>306</v>
-      </c>
-      <c r="H54" s="8" t="s">
-        <v>307</v>
-      </c>
-      <c r="I54" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="K54" s="17" t="s">
-        <v>316</v>
-      </c>
-      <c r="L54" s="25" t="s">
-        <v>278</v>
-      </c>
-      <c r="M54" s="17" t="s">
-        <v>129</v>
-      </c>
-      <c r="O54" s="26" t="s">
-        <v>317</v>
-      </c>
-      <c r="P54" s="8" t="s">
-        <v>280</v>
-      </c>
-      <c r="R54" s="26" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="55" s="8" customFormat="1" ht="24.95" customHeight="1" spans="1:18">
-      <c r="A55" s="16" t="s">
-        <v>318</v>
-      </c>
-      <c r="B55" s="8" t="s">
-        <v>274</v>
-      </c>
-      <c r="C55" s="8" t="s">
-        <v>319</v>
-      </c>
-      <c r="D55" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="E55" s="8" t="s">
-        <v>319</v>
-      </c>
-      <c r="F55" s="17" t="s">
-        <v>320</v>
-      </c>
-      <c r="G55" s="17" t="s">
-        <v>306</v>
-      </c>
-      <c r="H55" s="8" t="s">
-        <v>307</v>
-      </c>
-      <c r="I55" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="K55" s="17" t="s">
-        <v>316</v>
-      </c>
-      <c r="L55" s="25" t="s">
-        <v>278</v>
-      </c>
-      <c r="M55" s="17" t="s">
-        <v>129</v>
-      </c>
-      <c r="O55" s="27" t="s">
-        <v>321</v>
-      </c>
-      <c r="P55" s="8" t="s">
-        <v>280</v>
-      </c>
-      <c r="R55" s="26" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="56" s="8" customFormat="1" ht="24.95" customHeight="1" spans="1:18">
-      <c r="A56" s="16" t="s">
-        <v>322</v>
-      </c>
-      <c r="B56" s="8" t="s">
-        <v>274</v>
-      </c>
-      <c r="C56" s="8" t="s">
-        <v>323</v>
-      </c>
-      <c r="D56" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="E56" s="8" t="s">
-        <v>324</v>
-      </c>
-      <c r="F56" s="17" t="s">
-        <v>325</v>
-      </c>
-      <c r="G56" s="17" t="s">
-        <v>306</v>
-      </c>
-      <c r="H56" s="8" t="s">
-        <v>326</v>
-      </c>
-      <c r="I56" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="K56" s="17"/>
-      <c r="L56" s="25" t="s">
-        <v>278</v>
-      </c>
-      <c r="M56" s="17" t="s">
-        <v>129</v>
-      </c>
-      <c r="N56" s="8" t="s">
-        <v>327</v>
-      </c>
-      <c r="O56" s="26" t="s">
-        <v>328</v>
-      </c>
-      <c r="P56" s="8" t="s">
-        <v>280</v>
-      </c>
-      <c r="R56" s="26" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="57" s="8" customFormat="1" ht="24.95" customHeight="1" spans="1:18">
-      <c r="A57" s="16" t="s">
-        <v>329</v>
-      </c>
-      <c r="B57" s="8" t="s">
-        <v>274</v>
-      </c>
-      <c r="C57" s="8" t="s">
-        <v>323</v>
-      </c>
-      <c r="D57" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="E57" s="8" t="s">
-        <v>330</v>
-      </c>
-      <c r="F57" s="17" t="s">
-        <v>325</v>
-      </c>
-      <c r="G57" s="17"/>
-      <c r="I57" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="K57" s="17"/>
-      <c r="L57" s="25" t="s">
-        <v>278</v>
-      </c>
-      <c r="M57" s="17" t="s">
-        <v>129</v>
-      </c>
-      <c r="N57" s="8" t="s">
-        <v>331</v>
-      </c>
-      <c r="O57" s="26" t="s">
-        <v>328</v>
-      </c>
-      <c r="P57" s="8" t="s">
-        <v>280</v>
-      </c>
-      <c r="R57" s="26" t="s">
-        <v>281</v>
+      <c r="R57" s="24" t="s">
+        <v>279</v>
       </c>
     </row>
   </sheetData>

--- a/test_case_data/bmc/bmc_my_2021513.xlsx
+++ b/test_case_data/bmc/bmc_my_2021513.xlsx
@@ -862,11 +862,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-      </rPr>
       <t>FeedbackfeedbackType</t>
     </r>
     <r>
@@ -906,11 +901,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-      </rPr>
       <t>Feedback</t>
     </r>
     <r>
@@ -963,7 +953,7 @@
     <t>上传1张图片提交</t>
   </si>
   <si>
-    <t>{"imgs":["/group1/M00/00/11/CsXswmCTi06AC-QRABxDPFT2NBM348.jpg"],"content":"估计会根本不能你家法国红酒\n","feedbackTypeId":"52"}</t>
+    <t>{"imgs":["/group1/M00/00/11/CsXswmCTi06AC-QRABxDPFT2NBM348.jpg"],"content":"自动化测试自动化测试","feedbackTypeId":"52"}</t>
   </si>
   <si>
     <r>
@@ -989,7 +979,7 @@
     <t>上传3张图片提交</t>
   </si>
   <si>
-    <t>{"imgs":["/group1/M00/00/11/CsXswmCTkQ2AafkLABxDPFT2NBM265.jpg","/group1/M00/00/11/CsXsyWCTkQ6AR13fACFmED1pHag389.jpg","/group1/M00/00/11/CsXsyWCTkQ-AEF_tACYQlZQ1h2c284.jpg"],"content":"发货交接班v北京交警开\n","feedbackTypeId":"53"}</t>
+    <t>{"imgs":["/group1/M00/00/11/CsXswmCTkQ2AafkLABxDPFT2NBM265.jpg","/group1/M00/00/11/CsXsyWCTkQ6AR13fACFmED1pHag389.jpg","/group1/M00/00/11/CsXsyWCTkQ-AEF_tACYQlZQ1h2c284.jpg"],"content":"自动化测试自动化测试","feedbackTypeId":"53"}</t>
   </si>
   <si>
     <r>
@@ -1041,7 +1031,7 @@
     <t>不选意见类型</t>
   </si>
   <si>
-    <t>{"imgs":["/group1/M00/00/11/CsXsyWCTixiAYEgeACFmED1pHag083.jpg"],"content":"我是有图片的意见反馈你看看"}</t>
+    <t>{"imgs":["/group1/M00/00/11/CsXsyWCTixiAYEgeACFmED1pHag083.jpg"],"content":"不传类型id自动化测试"}</t>
   </si>
   <si>
     <t>请求成功，返回错误信息</t>
@@ -1051,11 +1041,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-      </rPr>
       <t>Feedback</t>
     </r>
     <r>
@@ -1118,11 +1103,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-      </rPr>
       <t>Feedback</t>
     </r>
     <r>
@@ -1150,17 +1130,11 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-      </rPr>
       <t>Feedback</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
         <rFont val="宋体"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1179,11 +1153,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-      </rPr>
       <t>Feedback</t>
     </r>
     <r>
@@ -1252,7 +1221,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="31">
+  <fonts count="29">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1262,13 +1231,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1299,7 +1261,6 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color theme="10"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1307,14 +1268,7 @@
     <font>
       <u/>
       <sz val="11"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="10"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1479,7 +1433,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="37">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1489,12 +1443,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1811,208 +1759,196 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="10" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="10" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="10" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="10" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="10" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="10" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2021,20 +1957,23 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="10" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="10" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="10" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="10" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -2386,15 +2325,15 @@
   <sheetPr/>
   <dimension ref="A1:T57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="K44" sqref="K44"/>
+      <selection pane="bottomLeft" activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="30.125" style="8" customWidth="1"/>
+    <col min="1" max="1" width="30.125" style="7" customWidth="1"/>
     <col min="2" max="2" width="19.375" customWidth="1"/>
     <col min="3" max="3" width="28.75" customWidth="1"/>
     <col min="4" max="4" width="11.625" customWidth="1"/>
@@ -2414,63 +2353,63 @@
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="33" customHeight="1" spans="1:18">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="F1" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="G1" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="H1" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="9" t="s">
+      <c r="I1" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="9" t="s">
+      <c r="J1" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="9" t="s">
+      <c r="K1" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="9" t="s">
+      <c r="L1" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="9" t="s">
+      <c r="M1" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="9" t="s">
+      <c r="N1" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="9" t="s">
+      <c r="O1" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="9" t="s">
+      <c r="P1" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="9" t="s">
+      <c r="Q1" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="9" t="s">
+      <c r="R1" s="8" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="2" s="2" customFormat="1" ht="30" customHeight="1" spans="1:16">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="6" t="s">
         <v>18</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -2497,59 +2436,59 @@
       <c r="L2" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="M2" s="16" t="s">
+      <c r="M2" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="O2" s="17" t="s">
+      <c r="O2" s="14" t="s">
         <v>28</v>
       </c>
       <c r="P2" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="3" s="3" customFormat="1" ht="30" customHeight="1" spans="1:16">
-      <c r="A3" s="11" t="s">
+    <row r="3" s="2" customFormat="1" ht="30" customHeight="1" spans="1:16">
+      <c r="A3" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="H3" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="I3" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="K3" s="3" t="s">
+      <c r="K3" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="L3" s="3" t="s">
+      <c r="L3" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="M3" s="3" t="s">
+      <c r="M3" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="O3" s="18" t="s">
+      <c r="O3" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="P3" s="3" t="s">
+      <c r="P3" s="2" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="4" s="2" customFormat="1" ht="30" customHeight="1" spans="1:16">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="6" t="s">
         <v>40</v>
       </c>
       <c r="B4" s="2" t="s">
@@ -2582,7 +2521,7 @@
       <c r="M4" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="O4" s="17" t="s">
+      <c r="O4" s="14" t="s">
         <v>39</v>
       </c>
       <c r="P4" s="2" t="s">
@@ -2590,7 +2529,7 @@
       </c>
     </row>
     <row r="5" s="2" customFormat="1" ht="30" customHeight="1" spans="1:16">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="6" t="s">
         <v>45</v>
       </c>
       <c r="B5" s="2" t="s">
@@ -2623,7 +2562,7 @@
       <c r="M5" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="O5" s="17" t="s">
+      <c r="O5" s="14" t="s">
         <v>39</v>
       </c>
       <c r="P5" s="2" t="s">
@@ -2631,7 +2570,7 @@
       </c>
     </row>
     <row r="6" s="2" customFormat="1" ht="30" customHeight="1" spans="1:16">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="6" t="s">
         <v>49</v>
       </c>
       <c r="B6" s="2" t="s">
@@ -2661,10 +2600,10 @@
       <c r="L6" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="M6" s="16" t="s">
+      <c r="M6" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="O6" s="17" t="s">
+      <c r="O6" s="14" t="s">
         <v>54</v>
       </c>
       <c r="P6" s="2" t="s">
@@ -2672,7 +2611,7 @@
       </c>
     </row>
     <row r="7" s="2" customFormat="1" ht="30" customHeight="1" spans="1:16">
-      <c r="A7" s="10" t="s">
+      <c r="A7" s="6" t="s">
         <v>55</v>
       </c>
       <c r="B7" s="2" t="s">
@@ -2705,7 +2644,7 @@
       <c r="M7" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="O7" s="17" t="s">
+      <c r="O7" s="14" t="s">
         <v>54</v>
       </c>
       <c r="P7" s="2" t="s">
@@ -2713,7 +2652,7 @@
       </c>
     </row>
     <row r="8" s="2" customFormat="1" ht="30" customHeight="1" spans="1:16">
-      <c r="A8" s="10" t="s">
+      <c r="A8" s="6" t="s">
         <v>60</v>
       </c>
       <c r="B8" s="2" t="s">
@@ -2740,10 +2679,10 @@
       <c r="L8" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="M8" s="16" t="s">
+      <c r="M8" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="O8" s="17" t="s">
+      <c r="O8" s="14" t="s">
         <v>65</v>
       </c>
       <c r="P8" s="2" t="s">
@@ -2751,7 +2690,7 @@
       </c>
     </row>
     <row r="9" s="2" customFormat="1" ht="30" customHeight="1" spans="1:16">
-      <c r="A9" s="10" t="s">
+      <c r="A9" s="6" t="s">
         <v>66</v>
       </c>
       <c r="B9" s="2" t="s">
@@ -2781,10 +2720,10 @@
       <c r="L9" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="M9" s="16" t="s">
+      <c r="M9" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="O9" s="17" t="s">
+      <c r="O9" s="14" t="s">
         <v>71</v>
       </c>
       <c r="P9" s="2" t="s">
@@ -2792,7 +2731,7 @@
       </c>
     </row>
     <row r="10" s="2" customFormat="1" ht="30" customHeight="1" spans="1:16">
-      <c r="A10" s="10" t="s">
+      <c r="A10" s="6" t="s">
         <v>72</v>
       </c>
       <c r="B10" s="2" t="s">
@@ -2822,10 +2761,10 @@
       <c r="L10" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="M10" s="16" t="s">
+      <c r="M10" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="O10" s="17" t="s">
+      <c r="O10" s="14" t="s">
         <v>71</v>
       </c>
       <c r="P10" s="2" t="s">
@@ -2833,7 +2772,7 @@
       </c>
     </row>
     <row r="11" s="2" customFormat="1" ht="30" customHeight="1" spans="1:16">
-      <c r="A11" s="10" t="s">
+      <c r="A11" s="6" t="s">
         <v>76</v>
       </c>
       <c r="B11" s="2" t="s">
@@ -2866,7 +2805,7 @@
       <c r="M11" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="O11" s="17" t="s">
+      <c r="O11" s="14" t="s">
         <v>83</v>
       </c>
       <c r="P11" s="2" t="s">
@@ -2874,7 +2813,7 @@
       </c>
     </row>
     <row r="12" s="2" customFormat="1" ht="30" customHeight="1" spans="1:16">
-      <c r="A12" s="10" t="s">
+      <c r="A12" s="6" t="s">
         <v>84</v>
       </c>
       <c r="B12" s="2" t="s">
@@ -2904,10 +2843,10 @@
       <c r="L12" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="M12" s="16" t="s">
+      <c r="M12" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="O12" s="17" t="s">
+      <c r="O12" s="14" t="s">
         <v>90</v>
       </c>
       <c r="P12" s="2" t="s">
@@ -2915,7 +2854,7 @@
       </c>
     </row>
     <row r="13" s="2" customFormat="1" ht="30" customHeight="1" spans="1:16">
-      <c r="A13" s="10" t="s">
+      <c r="A13" s="6" t="s">
         <v>91</v>
       </c>
       <c r="B13" s="2" t="s">
@@ -2945,7 +2884,7 @@
       <c r="M13" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="O13" s="17" t="s">
+      <c r="O13" s="14" t="s">
         <v>90</v>
       </c>
       <c r="P13" s="2" t="s">
@@ -2953,7 +2892,7 @@
       </c>
     </row>
     <row r="14" s="2" customFormat="1" ht="30" customHeight="1" spans="1:16">
-      <c r="A14" s="10" t="s">
+      <c r="A14" s="6" t="s">
         <v>96</v>
       </c>
       <c r="B14" s="2" t="s">
@@ -2986,7 +2925,7 @@
       <c r="M14" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="O14" s="17" t="s">
+      <c r="O14" s="14" t="s">
         <v>90</v>
       </c>
       <c r="P14" s="2" t="s">
@@ -2994,7 +2933,7 @@
       </c>
     </row>
     <row r="15" s="2" customFormat="1" ht="30" customHeight="1" spans="1:16">
-      <c r="A15" s="10" t="s">
+      <c r="A15" s="6" t="s">
         <v>101</v>
       </c>
       <c r="B15" s="2" t="s">
@@ -3027,7 +2966,7 @@
       <c r="M15" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="O15" s="17" t="s">
+      <c r="O15" s="14" t="s">
         <v>107</v>
       </c>
       <c r="P15" s="2" t="s">
@@ -3035,7 +2974,7 @@
       </c>
     </row>
     <row r="16" s="2" customFormat="1" ht="30" customHeight="1" spans="1:16">
-      <c r="A16" s="10" t="s">
+      <c r="A16" s="6" t="s">
         <v>108</v>
       </c>
       <c r="B16" s="2" t="s">
@@ -3065,7 +3004,7 @@
       <c r="M16" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="O16" s="17" t="s">
+      <c r="O16" s="14" t="s">
         <v>107</v>
       </c>
       <c r="P16" s="2" t="s">
@@ -3073,7 +3012,7 @@
       </c>
     </row>
     <row r="17" s="2" customFormat="1" ht="30" customHeight="1" spans="1:16">
-      <c r="A17" s="10" t="s">
+      <c r="A17" s="6" t="s">
         <v>113</v>
       </c>
       <c r="B17" s="2" t="s">
@@ -3106,376 +3045,376 @@
       <c r="M17" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="O17" s="17" t="s">
+      <c r="O17" s="14" t="s">
         <v>107</v>
       </c>
       <c r="P17" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="18" s="4" customFormat="1" ht="30" customHeight="1" spans="1:18">
-      <c r="A18" s="12" t="s">
+    <row r="18" s="3" customFormat="1" ht="30" customHeight="1" spans="1:18">
+      <c r="A18" s="9" t="s">
         <v>117</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="B18" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C18" s="4" t="s">
+      <c r="C18" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="D18" s="4" t="s">
+      <c r="D18" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="E18" s="4" t="s">
+      <c r="E18" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="F18" s="4" t="s">
+      <c r="F18" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="I18" s="4" t="s">
+      <c r="I18" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="K18" s="4" t="s">
+      <c r="K18" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="L18" s="4" t="s">
+      <c r="L18" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="M18" s="4" t="s">
+      <c r="M18" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="O18" s="19" t="s">
+      <c r="O18" s="15" t="s">
         <v>121</v>
       </c>
-      <c r="P18" s="4" t="s">
+      <c r="P18" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="R18" s="4" t="s">
+      <c r="R18" s="3" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="19" s="5" customFormat="1" ht="30" customHeight="1" spans="1:16">
-      <c r="A19" s="11" t="s">
+    <row r="19" s="2" customFormat="1" ht="30" customHeight="1" spans="1:16">
+      <c r="A19" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="B19" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="C19" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="D19" s="3" t="s">
+      <c r="D19" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="E19" s="5" t="s">
+      <c r="E19" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="F19" s="5" t="s">
+      <c r="F19" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="G19" s="5" t="s">
+      <c r="G19" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="H19" s="5" t="s">
+      <c r="H19" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="I19" s="5" t="s">
+      <c r="I19" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="J19" s="3"/>
-      <c r="K19" s="5" t="s">
+      <c r="J19" s="2"/>
+      <c r="K19" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="L19" s="5" t="s">
+      <c r="L19" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="M19" s="5" t="s">
+      <c r="M19" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="O19" s="20" t="s">
+      <c r="O19" s="14" t="s">
         <v>90</v>
       </c>
-      <c r="P19" s="3" t="s">
+      <c r="P19" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="20" s="2" customFormat="1" ht="30" customHeight="1" spans="1:16">
-      <c r="A20" s="10" t="s">
+    <row r="20" s="4" customFormat="1" ht="30" customHeight="1" spans="1:16">
+      <c r="A20" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B20" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="C20" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="D20" s="2" t="s">
+      <c r="D20" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="E20" s="2" t="s">
+      <c r="E20" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="F20" s="2" t="s">
+      <c r="F20" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="I20" s="2" t="s">
+      <c r="I20" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="K20" s="2" t="s">
+      <c r="K20" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="L20" s="2" t="s">
+      <c r="L20" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="M20" s="2" t="s">
+      <c r="M20" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="O20" s="17" t="s">
+      <c r="O20" s="16" t="s">
         <v>90</v>
       </c>
-      <c r="P20" s="2" t="s">
+      <c r="P20" s="4" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="21" s="2" customFormat="1" ht="30" customHeight="1" spans="1:16">
-      <c r="A21" s="10" t="s">
+    <row r="21" s="4" customFormat="1" ht="30" customHeight="1" spans="1:16">
+      <c r="A21" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B21" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="C21" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="D21" s="2" t="s">
+      <c r="D21" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="E21" s="2" t="s">
+      <c r="E21" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="F21" s="13" t="s">
+      <c r="F21" s="10" t="s">
         <v>138</v>
       </c>
-      <c r="H21" s="2" t="s">
+      <c r="H21" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="I21" s="2" t="s">
+      <c r="I21" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="K21" s="2" t="s">
+      <c r="K21" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="L21" s="2" t="s">
+      <c r="L21" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="M21" s="2" t="s">
+      <c r="M21" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="O21" s="17" t="s">
+      <c r="O21" s="16" t="s">
         <v>141</v>
       </c>
-      <c r="P21" s="2" t="s">
+      <c r="P21" s="4" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="22" s="2" customFormat="1" ht="30" customHeight="1" spans="1:16">
-      <c r="A22" s="10" t="s">
+    <row r="22" s="4" customFormat="1" ht="30" customHeight="1" spans="1:16">
+      <c r="A22" s="5" t="s">
         <v>142</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="B22" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="C22" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="D22" s="2" t="s">
+      <c r="D22" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="E22" s="2" t="s">
+      <c r="E22" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="F22" s="2" t="s">
+      <c r="F22" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="H22" s="2" t="s">
+      <c r="H22" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="I22" s="2" t="s">
+      <c r="I22" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="L22" s="2" t="s">
+      <c r="L22" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="M22" s="2" t="s">
+      <c r="M22" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="O22" s="17" t="s">
+      <c r="O22" s="16" t="s">
         <v>146</v>
       </c>
-      <c r="P22" s="2" t="s">
+      <c r="P22" s="4" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="23" s="2" customFormat="1" ht="30" customHeight="1" spans="1:16">
-      <c r="A23" s="10" t="s">
+    <row r="23" s="4" customFormat="1" ht="30" customHeight="1" spans="1:16">
+      <c r="A23" s="5" t="s">
         <v>147</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="B23" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="C23" s="2" t="s">
+      <c r="C23" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="D23" s="2" t="s">
+      <c r="D23" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="E23" s="2" t="s">
+      <c r="E23" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="F23" s="2" t="s">
+      <c r="F23" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="H23" s="2" t="s">
+      <c r="H23" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="I23" s="2" t="s">
+      <c r="I23" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="K23" s="2" t="s">
+      <c r="K23" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="L23" s="2" t="s">
+      <c r="L23" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="M23" s="2" t="s">
+      <c r="M23" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="O23" s="17" t="s">
+      <c r="O23" s="16" t="s">
         <v>153</v>
       </c>
-      <c r="P23" s="2" t="s">
+      <c r="P23" s="4" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="24" s="2" customFormat="1" ht="30" customHeight="1" spans="1:16">
-      <c r="A24" s="10" t="s">
+    <row r="24" s="4" customFormat="1" ht="30" customHeight="1" spans="1:16">
+      <c r="A24" s="5" t="s">
         <v>154</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="B24" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="C24" s="2" t="s">
+      <c r="C24" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="D24" s="2" t="s">
+      <c r="D24" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="E24" s="2" t="s">
+      <c r="E24" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="F24" s="2" t="s">
+      <c r="F24" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="H24" s="2" t="s">
+      <c r="H24" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="I24" s="2" t="s">
+      <c r="I24" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="L24" s="2" t="s">
+      <c r="L24" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="M24" s="2" t="s">
+      <c r="M24" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="O24" s="17" t="s">
+      <c r="O24" s="16" t="s">
         <v>160</v>
       </c>
-      <c r="P24" s="2" t="s">
+      <c r="P24" s="4" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="25" s="2" customFormat="1" ht="30" customHeight="1" spans="1:16">
-      <c r="A25" s="10" t="s">
+    <row r="25" s="4" customFormat="1" ht="30" customHeight="1" spans="1:16">
+      <c r="A25" s="5" t="s">
         <v>161</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="B25" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="C25" s="2" t="s">
+      <c r="C25" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="D25" s="2" t="s">
+      <c r="D25" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="E25" s="2" t="s">
+      <c r="E25" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="F25" s="2" t="s">
+      <c r="F25" s="4" t="s">
         <v>164</v>
       </c>
-      <c r="H25" s="2" t="s">
+      <c r="H25" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="I25" s="2" t="s">
+      <c r="I25" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="L25" s="2" t="s">
+      <c r="L25" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="M25" s="2" t="s">
+      <c r="M25" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="O25" s="17" t="s">
+      <c r="O25" s="16" t="s">
         <v>166</v>
       </c>
-      <c r="P25" s="2" t="s">
+      <c r="P25" s="4" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="26" s="2" customFormat="1" ht="30" customHeight="1" spans="1:16">
-      <c r="A26" s="10" t="s">
+    <row r="26" s="4" customFormat="1" ht="30" customHeight="1" spans="1:16">
+      <c r="A26" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="B26" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="C26" s="2" t="s">
+      <c r="C26" s="4" t="s">
         <v>168</v>
       </c>
-      <c r="D26" s="2" t="s">
+      <c r="D26" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="E26" s="2" t="s">
+      <c r="E26" s="4" t="s">
         <v>169</v>
       </c>
-      <c r="F26" s="2" t="s">
+      <c r="F26" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="H26" s="2" t="s">
+      <c r="H26" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="I26" s="2" t="s">
+      <c r="I26" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="K26" s="2" t="s">
+      <c r="K26" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="L26" s="2" t="s">
+      <c r="L26" s="4" t="s">
         <v>172</v>
       </c>
-      <c r="M26" s="2" t="s">
+      <c r="M26" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="O26" s="17" t="s">
+      <c r="O26" s="16" t="s">
         <v>173</v>
       </c>
-      <c r="P26" s="2" t="s">
+      <c r="P26" s="4" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="27" s="2" customFormat="1" ht="30" customHeight="1" spans="1:16">
-      <c r="A27" s="10" t="s">
+      <c r="A27" s="6" t="s">
         <v>174</v>
       </c>
       <c r="B27" s="2" t="s">
@@ -3508,1350 +3447,1350 @@
       <c r="M27" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="O27" s="17" t="s">
+      <c r="O27" s="14" t="s">
         <v>180</v>
       </c>
       <c r="P27" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="28" s="2" customFormat="1" ht="30" customHeight="1" spans="1:16">
-      <c r="A28" s="10" t="s">
+    <row r="28" s="4" customFormat="1" ht="30" customHeight="1" spans="1:16">
+      <c r="A28" s="5" t="s">
         <v>181</v>
       </c>
-      <c r="B28" s="2" t="s">
+      <c r="B28" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="C28" s="2" t="s">
+      <c r="C28" s="4" t="s">
         <v>182</v>
       </c>
-      <c r="D28" s="2" t="s">
+      <c r="D28" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="E28" s="2" t="s">
+      <c r="E28" s="4" t="s">
         <v>183</v>
       </c>
-      <c r="F28" s="2" t="s">
+      <c r="F28" s="4" t="s">
         <v>184</v>
       </c>
-      <c r="H28" s="2" t="s">
+      <c r="H28" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="I28" s="2" t="s">
+      <c r="I28" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="K28" s="2" t="s">
+      <c r="K28" s="4" t="s">
         <v>185</v>
       </c>
-      <c r="L28" s="2" t="s">
+      <c r="L28" s="4" t="s">
         <v>186</v>
       </c>
-      <c r="M28" s="2" t="s">
+      <c r="M28" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="O28" s="17" t="s">
+      <c r="O28" s="16" t="s">
         <v>187</v>
       </c>
-      <c r="P28" s="2" t="s">
+      <c r="P28" s="4" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="29" s="2" customFormat="1" ht="30" customHeight="1" spans="1:16">
-      <c r="A29" s="10" t="s">
+    <row r="29" s="4" customFormat="1" ht="30" customHeight="1" spans="1:16">
+      <c r="A29" s="5" t="s">
         <v>188</v>
       </c>
-      <c r="B29" s="2" t="s">
+      <c r="B29" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="C29" s="2" t="s">
+      <c r="C29" s="4" t="s">
         <v>182</v>
       </c>
-      <c r="D29" s="2" t="s">
+      <c r="D29" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="E29" s="2" t="s">
+      <c r="E29" s="4" t="s">
         <v>189</v>
       </c>
-      <c r="F29" s="2" t="s">
+      <c r="F29" s="4" t="s">
         <v>184</v>
       </c>
-      <c r="H29" s="2" t="s">
+      <c r="H29" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="I29" s="2" t="s">
+      <c r="I29" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="L29" s="2" t="s">
+      <c r="L29" s="4" t="s">
         <v>190</v>
       </c>
-      <c r="M29" s="2" t="s">
+      <c r="M29" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="O29" s="17" t="s">
+      <c r="O29" s="16" t="s">
         <v>187</v>
       </c>
-      <c r="P29" s="2" t="s">
+      <c r="P29" s="4" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="30" s="2" customFormat="1" ht="24.95" customHeight="1" spans="1:20">
-      <c r="A30" s="10" t="s">
+    <row r="30" s="4" customFormat="1" ht="24.95" customHeight="1" spans="1:20">
+      <c r="A30" s="5" t="s">
         <v>191</v>
       </c>
-      <c r="B30" s="10" t="s">
+      <c r="B30" s="5" t="s">
         <v>192</v>
       </c>
-      <c r="C30" s="10" t="s">
+      <c r="C30" s="5" t="s">
         <v>192</v>
       </c>
-      <c r="D30" s="10" t="s">
+      <c r="D30" s="5" t="s">
         <v>193</v>
       </c>
-      <c r="E30" s="10" t="s">
+      <c r="E30" s="5" t="s">
         <v>194</v>
       </c>
-      <c r="F30" s="10" t="s">
+      <c r="F30" s="5" t="s">
         <v>195</v>
       </c>
-      <c r="G30" s="10"/>
-      <c r="H30" s="10"/>
-      <c r="I30" s="21" t="s">
+      <c r="G30" s="5"/>
+      <c r="H30" s="5"/>
+      <c r="I30" s="17" t="s">
         <v>196</v>
       </c>
-      <c r="J30" s="10"/>
-      <c r="K30" s="10" t="s">
+      <c r="J30" s="5"/>
+      <c r="K30" s="5" t="s">
         <v>197</v>
       </c>
-      <c r="L30" s="10" t="s">
+      <c r="L30" s="5" t="s">
         <v>198</v>
       </c>
-      <c r="M30" s="21" t="s">
+      <c r="M30" s="17" t="s">
         <v>199</v>
       </c>
-      <c r="N30" s="10"/>
-      <c r="O30" s="22" t="s">
+      <c r="N30" s="5"/>
+      <c r="O30" s="18" t="s">
         <v>200</v>
       </c>
-      <c r="P30" s="10" t="s">
+      <c r="P30" s="5" t="s">
         <v>201</v>
       </c>
-      <c r="Q30" s="26"/>
-      <c r="R30" s="10"/>
-      <c r="S30" s="10"/>
-      <c r="T30" s="10"/>
-    </row>
-    <row r="31" s="2" customFormat="1" ht="24.95" customHeight="1" spans="1:20">
-      <c r="A31" s="10" t="s">
+      <c r="Q30" s="22"/>
+      <c r="R30" s="5"/>
+      <c r="S30" s="5"/>
+      <c r="T30" s="5"/>
+    </row>
+    <row r="31" s="4" customFormat="1" ht="24.95" customHeight="1" spans="1:20">
+      <c r="A31" s="5" t="s">
         <v>202</v>
       </c>
-      <c r="B31" s="10" t="s">
+      <c r="B31" s="5" t="s">
         <v>192</v>
       </c>
-      <c r="C31" s="10" t="s">
+      <c r="C31" s="5" t="s">
         <v>192</v>
       </c>
-      <c r="D31" s="10" t="s">
+      <c r="D31" s="5" t="s">
         <v>193</v>
       </c>
-      <c r="E31" s="10" t="s">
+      <c r="E31" s="5" t="s">
         <v>203</v>
       </c>
-      <c r="F31" s="10" t="s">
+      <c r="F31" s="5" t="s">
         <v>195</v>
       </c>
-      <c r="G31" s="10"/>
-      <c r="H31" s="10"/>
-      <c r="I31" s="21" t="s">
+      <c r="G31" s="5"/>
+      <c r="H31" s="5"/>
+      <c r="I31" s="17" t="s">
         <v>196</v>
       </c>
-      <c r="J31" s="10"/>
-      <c r="K31" s="10" t="s">
+      <c r="J31" s="5"/>
+      <c r="K31" s="5" t="s">
         <v>197</v>
       </c>
-      <c r="L31" s="10" t="s">
+      <c r="L31" s="5" t="s">
         <v>198</v>
       </c>
-      <c r="M31" s="21" t="s">
+      <c r="M31" s="17" t="s">
         <v>204</v>
       </c>
-      <c r="N31" s="10"/>
-      <c r="O31" s="22" t="s">
+      <c r="N31" s="5"/>
+      <c r="O31" s="18" t="s">
         <v>200</v>
       </c>
-      <c r="P31" s="10" t="s">
+      <c r="P31" s="5" t="s">
         <v>201</v>
       </c>
-      <c r="Q31" s="26"/>
-      <c r="R31" s="10"/>
-      <c r="S31" s="10"/>
-      <c r="T31" s="10"/>
-    </row>
-    <row r="32" s="2" customFormat="1" ht="24.95" customHeight="1" spans="1:20">
-      <c r="A32" s="10" t="s">
+      <c r="Q31" s="22"/>
+      <c r="R31" s="5"/>
+      <c r="S31" s="5"/>
+      <c r="T31" s="5"/>
+    </row>
+    <row r="32" s="4" customFormat="1" ht="24.95" customHeight="1" spans="1:20">
+      <c r="A32" s="5" t="s">
         <v>205</v>
       </c>
-      <c r="B32" s="10" t="s">
+      <c r="B32" s="5" t="s">
         <v>192</v>
       </c>
-      <c r="C32" s="10" t="s">
+      <c r="C32" s="5" t="s">
         <v>192</v>
       </c>
-      <c r="D32" s="10" t="s">
+      <c r="D32" s="5" t="s">
         <v>193</v>
       </c>
-      <c r="E32" s="10" t="s">
+      <c r="E32" s="5" t="s">
         <v>206</v>
       </c>
-      <c r="F32" s="10" t="s">
+      <c r="F32" s="5" t="s">
         <v>195</v>
       </c>
-      <c r="G32" s="10"/>
-      <c r="H32" s="10"/>
-      <c r="I32" s="21" t="s">
+      <c r="G32" s="5"/>
+      <c r="H32" s="5"/>
+      <c r="I32" s="17" t="s">
         <v>196</v>
       </c>
-      <c r="J32" s="10"/>
-      <c r="K32" s="10" t="s">
+      <c r="J32" s="5"/>
+      <c r="K32" s="5" t="s">
         <v>197</v>
       </c>
-      <c r="L32" s="10" t="s">
+      <c r="L32" s="5" t="s">
         <v>198</v>
       </c>
-      <c r="M32" s="21" t="s">
+      <c r="M32" s="17" t="s">
         <v>199</v>
       </c>
-      <c r="N32" s="10"/>
-      <c r="O32" s="22" t="s">
+      <c r="N32" s="5"/>
+      <c r="O32" s="18" t="s">
         <v>200</v>
       </c>
-      <c r="P32" s="10" t="s">
+      <c r="P32" s="5" t="s">
         <v>201</v>
       </c>
-      <c r="Q32" s="27"/>
-      <c r="R32" s="10"/>
-      <c r="S32" s="10"/>
-      <c r="T32" s="10"/>
-    </row>
-    <row r="33" s="2" customFormat="1" ht="24.95" customHeight="1" spans="1:20">
-      <c r="A33" s="10" t="s">
+      <c r="Q32" s="23"/>
+      <c r="R32" s="5"/>
+      <c r="S32" s="5"/>
+      <c r="T32" s="5"/>
+    </row>
+    <row r="33" s="4" customFormat="1" ht="24.95" customHeight="1" spans="1:20">
+      <c r="A33" s="5" t="s">
         <v>207</v>
       </c>
-      <c r="B33" s="10" t="s">
+      <c r="B33" s="5" t="s">
         <v>208</v>
       </c>
-      <c r="C33" s="10" t="s">
+      <c r="C33" s="5" t="s">
         <v>209</v>
       </c>
-      <c r="D33" s="10" t="s">
+      <c r="D33" s="5" t="s">
         <v>193</v>
       </c>
-      <c r="E33" s="10" t="s">
+      <c r="E33" s="5" t="s">
         <v>210</v>
       </c>
-      <c r="F33" s="10" t="s">
+      <c r="F33" s="5" t="s">
         <v>211</v>
       </c>
-      <c r="G33" s="10"/>
-      <c r="H33" s="10"/>
-      <c r="I33" s="21" t="s">
+      <c r="G33" s="5"/>
+      <c r="H33" s="5"/>
+      <c r="I33" s="17" t="s">
         <v>196</v>
       </c>
-      <c r="J33" s="10"/>
-      <c r="K33" s="10" t="s">
+      <c r="J33" s="5"/>
+      <c r="K33" s="5" t="s">
         <v>212</v>
       </c>
-      <c r="L33" s="10" t="s">
+      <c r="L33" s="5" t="s">
         <v>198</v>
       </c>
-      <c r="M33" s="21" t="s">
+      <c r="M33" s="17" t="s">
         <v>213</v>
       </c>
-      <c r="N33" s="10"/>
-      <c r="O33" s="22" t="s">
+      <c r="N33" s="5"/>
+      <c r="O33" s="18" t="s">
         <v>214</v>
       </c>
-      <c r="P33" s="10" t="s">
+      <c r="P33" s="5" t="s">
         <v>201</v>
       </c>
-      <c r="Q33" s="27"/>
-      <c r="R33" s="10"/>
-      <c r="S33" s="10"/>
-      <c r="T33" s="10"/>
-    </row>
-    <row r="34" s="2" customFormat="1" ht="24.95" customHeight="1" spans="1:20">
-      <c r="A34" s="10" t="s">
+      <c r="Q33" s="23"/>
+      <c r="R33" s="5"/>
+      <c r="S33" s="5"/>
+      <c r="T33" s="5"/>
+    </row>
+    <row r="34" s="4" customFormat="1" ht="24.95" customHeight="1" spans="1:20">
+      <c r="A34" s="5" t="s">
         <v>215</v>
       </c>
-      <c r="B34" s="10" t="s">
+      <c r="B34" s="5" t="s">
         <v>208</v>
       </c>
-      <c r="C34" s="10" t="s">
+      <c r="C34" s="5" t="s">
         <v>209</v>
       </c>
-      <c r="D34" s="10" t="s">
+      <c r="D34" s="5" t="s">
         <v>193</v>
       </c>
-      <c r="E34" s="10" t="s">
+      <c r="E34" s="5" t="s">
         <v>216</v>
       </c>
-      <c r="F34" s="10" t="s">
+      <c r="F34" s="5" t="s">
         <v>211</v>
       </c>
-      <c r="G34" s="10"/>
-      <c r="H34" s="10"/>
-      <c r="I34" s="21" t="s">
+      <c r="G34" s="5"/>
+      <c r="H34" s="5"/>
+      <c r="I34" s="17" t="s">
         <v>196</v>
       </c>
-      <c r="J34" s="10"/>
-      <c r="K34" s="10" t="s">
+      <c r="J34" s="5"/>
+      <c r="K34" s="5" t="s">
         <v>212</v>
       </c>
-      <c r="L34" s="10" t="s">
+      <c r="L34" s="5" t="s">
         <v>198</v>
       </c>
-      <c r="M34" s="21" t="s">
+      <c r="M34" s="17" t="s">
         <v>217</v>
       </c>
-      <c r="N34" s="10"/>
-      <c r="O34" s="22" t="s">
+      <c r="N34" s="5"/>
+      <c r="O34" s="18" t="s">
         <v>214</v>
       </c>
-      <c r="P34" s="10" t="s">
+      <c r="P34" s="5" t="s">
         <v>201</v>
       </c>
-      <c r="Q34" s="27"/>
-      <c r="R34" s="10"/>
-      <c r="S34" s="10"/>
-      <c r="T34" s="10"/>
-    </row>
-    <row r="35" s="2" customFormat="1" ht="24.95" customHeight="1" spans="1:20">
-      <c r="A35" s="10" t="s">
+      <c r="Q34" s="23"/>
+      <c r="R34" s="5"/>
+      <c r="S34" s="5"/>
+      <c r="T34" s="5"/>
+    </row>
+    <row r="35" s="4" customFormat="1" ht="24.95" customHeight="1" spans="1:20">
+      <c r="A35" s="5" t="s">
         <v>218</v>
       </c>
-      <c r="B35" s="10" t="s">
+      <c r="B35" s="5" t="s">
         <v>219</v>
       </c>
-      <c r="C35" s="10" t="s">
+      <c r="C35" s="5" t="s">
         <v>220</v>
       </c>
-      <c r="D35" s="10" t="s">
+      <c r="D35" s="5" t="s">
         <v>193</v>
       </c>
-      <c r="E35" s="10" t="s">
+      <c r="E35" s="5" t="s">
         <v>221</v>
       </c>
-      <c r="F35" s="10" t="s">
+      <c r="F35" s="5" t="s">
         <v>222</v>
       </c>
-      <c r="G35" s="10"/>
-      <c r="H35" s="10"/>
-      <c r="I35" s="21" t="s">
+      <c r="G35" s="5"/>
+      <c r="H35" s="5"/>
+      <c r="I35" s="17" t="s">
         <v>196</v>
       </c>
-      <c r="J35" s="10"/>
-      <c r="K35" s="10" t="s">
+      <c r="J35" s="5"/>
+      <c r="K35" s="5" t="s">
         <v>223</v>
       </c>
-      <c r="L35" s="10" t="s">
+      <c r="L35" s="5" t="s">
         <v>198</v>
       </c>
-      <c r="M35" s="21" t="s">
+      <c r="M35" s="17" t="s">
         <v>224</v>
       </c>
-      <c r="N35" s="10"/>
-      <c r="O35" s="22" t="s">
+      <c r="N35" s="5"/>
+      <c r="O35" s="18" t="s">
         <v>225</v>
       </c>
-      <c r="P35" s="10" t="s">
+      <c r="P35" s="5" t="s">
         <v>201</v>
       </c>
-      <c r="Q35" s="27"/>
-      <c r="R35" s="10"/>
-      <c r="S35" s="10"/>
-      <c r="T35" s="10"/>
-    </row>
-    <row r="36" s="2" customFormat="1" ht="24.95" customHeight="1" spans="1:20">
-      <c r="A36" s="10" t="s">
+      <c r="Q35" s="23"/>
+      <c r="R35" s="5"/>
+      <c r="S35" s="5"/>
+      <c r="T35" s="5"/>
+    </row>
+    <row r="36" s="4" customFormat="1" ht="24.95" customHeight="1" spans="1:20">
+      <c r="A36" s="5" t="s">
         <v>226</v>
       </c>
-      <c r="B36" s="10" t="s">
+      <c r="B36" s="5" t="s">
         <v>219</v>
       </c>
-      <c r="C36" s="10" t="s">
+      <c r="C36" s="5" t="s">
         <v>220</v>
       </c>
-      <c r="D36" s="10" t="s">
+      <c r="D36" s="5" t="s">
         <v>193</v>
       </c>
-      <c r="E36" s="10" t="s">
+      <c r="E36" s="5" t="s">
         <v>227</v>
       </c>
-      <c r="F36" s="10" t="s">
+      <c r="F36" s="5" t="s">
         <v>222</v>
       </c>
-      <c r="G36" s="10"/>
-      <c r="H36" s="10"/>
-      <c r="I36" s="21" t="s">
+      <c r="G36" s="5"/>
+      <c r="H36" s="5"/>
+      <c r="I36" s="17" t="s">
         <v>196</v>
       </c>
-      <c r="J36" s="10"/>
-      <c r="K36" s="10" t="s">
+      <c r="J36" s="5"/>
+      <c r="K36" s="5" t="s">
         <v>228</v>
       </c>
-      <c r="L36" s="10" t="s">
+      <c r="L36" s="5" t="s">
         <v>198</v>
       </c>
-      <c r="M36" s="21" t="s">
+      <c r="M36" s="17" t="s">
         <v>229</v>
       </c>
-      <c r="N36" s="10"/>
-      <c r="O36" s="22" t="s">
+      <c r="N36" s="5"/>
+      <c r="O36" s="18" t="s">
         <v>225</v>
       </c>
-      <c r="P36" s="10" t="s">
+      <c r="P36" s="5" t="s">
         <v>201</v>
       </c>
-      <c r="Q36" s="27"/>
-      <c r="R36" s="10"/>
-      <c r="S36" s="10"/>
-      <c r="T36" s="10"/>
-    </row>
-    <row r="37" s="2" customFormat="1" ht="24.95" customHeight="1" spans="1:20">
-      <c r="A37" s="10" t="s">
+      <c r="Q36" s="23"/>
+      <c r="R36" s="5"/>
+      <c r="S36" s="5"/>
+      <c r="T36" s="5"/>
+    </row>
+    <row r="37" s="4" customFormat="1" ht="24.95" customHeight="1" spans="1:20">
+      <c r="A37" s="5" t="s">
         <v>230</v>
       </c>
-      <c r="B37" s="10" t="s">
+      <c r="B37" s="5" t="s">
         <v>219</v>
       </c>
-      <c r="C37" s="10" t="s">
+      <c r="C37" s="5" t="s">
         <v>220</v>
       </c>
-      <c r="D37" s="10" t="s">
+      <c r="D37" s="5" t="s">
         <v>193</v>
       </c>
-      <c r="E37" s="10" t="s">
+      <c r="E37" s="5" t="s">
         <v>231</v>
       </c>
-      <c r="F37" s="10" t="s">
+      <c r="F37" s="5" t="s">
         <v>222</v>
       </c>
-      <c r="G37" s="10"/>
-      <c r="H37" s="10"/>
-      <c r="I37" s="21" t="s">
+      <c r="G37" s="5"/>
+      <c r="H37" s="5"/>
+      <c r="I37" s="17" t="s">
         <v>196</v>
       </c>
-      <c r="J37" s="10"/>
-      <c r="K37" s="10" t="s">
+      <c r="J37" s="5"/>
+      <c r="K37" s="5" t="s">
         <v>232</v>
       </c>
-      <c r="L37" s="10" t="s">
+      <c r="L37" s="5" t="s">
         <v>198</v>
       </c>
-      <c r="M37" s="21" t="s">
+      <c r="M37" s="17" t="s">
         <v>229</v>
       </c>
-      <c r="N37" s="10"/>
-      <c r="O37" s="22" t="s">
+      <c r="N37" s="5"/>
+      <c r="O37" s="18" t="s">
         <v>225</v>
       </c>
-      <c r="P37" s="10" t="s">
+      <c r="P37" s="5" t="s">
         <v>201</v>
       </c>
-      <c r="Q37" s="27"/>
-      <c r="R37" s="10"/>
-      <c r="S37" s="10"/>
-      <c r="T37" s="10"/>
-    </row>
-    <row r="38" s="2" customFormat="1" ht="24.95" customHeight="1" spans="1:20">
-      <c r="A38" s="10" t="s">
+      <c r="Q37" s="23"/>
+      <c r="R37" s="5"/>
+      <c r="S37" s="5"/>
+      <c r="T37" s="5"/>
+    </row>
+    <row r="38" s="4" customFormat="1" ht="24.95" customHeight="1" spans="1:20">
+      <c r="A38" s="5" t="s">
         <v>233</v>
       </c>
-      <c r="B38" s="10" t="s">
+      <c r="B38" s="5" t="s">
         <v>219</v>
       </c>
-      <c r="C38" s="10" t="s">
+      <c r="C38" s="5" t="s">
         <v>220</v>
       </c>
-      <c r="D38" s="10" t="s">
+      <c r="D38" s="5" t="s">
         <v>193</v>
       </c>
-      <c r="E38" s="10" t="s">
+      <c r="E38" s="5" t="s">
         <v>234</v>
       </c>
-      <c r="F38" s="10" t="s">
+      <c r="F38" s="5" t="s">
         <v>222</v>
       </c>
-      <c r="G38" s="10"/>
-      <c r="H38" s="10"/>
-      <c r="I38" s="21" t="s">
+      <c r="G38" s="5"/>
+      <c r="H38" s="5"/>
+      <c r="I38" s="17" t="s">
         <v>196</v>
       </c>
-      <c r="J38" s="10"/>
-      <c r="K38" s="10" t="s">
+      <c r="J38" s="5"/>
+      <c r="K38" s="5" t="s">
         <v>235</v>
       </c>
-      <c r="L38" s="10" t="s">
+      <c r="L38" s="5" t="s">
         <v>198</v>
       </c>
-      <c r="M38" s="21" t="s">
+      <c r="M38" s="17" t="s">
         <v>229</v>
       </c>
-      <c r="N38" s="10"/>
-      <c r="O38" s="22" t="s">
+      <c r="N38" s="5"/>
+      <c r="O38" s="18" t="s">
         <v>225</v>
       </c>
-      <c r="P38" s="10" t="s">
+      <c r="P38" s="5" t="s">
         <v>201</v>
       </c>
-      <c r="Q38" s="27"/>
-      <c r="R38" s="10"/>
-      <c r="S38" s="10"/>
-      <c r="T38" s="10"/>
-    </row>
-    <row r="39" s="2" customFormat="1" ht="24.95" customHeight="1" spans="1:20">
-      <c r="A39" s="10" t="s">
+      <c r="Q38" s="23"/>
+      <c r="R38" s="5"/>
+      <c r="S38" s="5"/>
+      <c r="T38" s="5"/>
+    </row>
+    <row r="39" s="4" customFormat="1" ht="24.95" customHeight="1" spans="1:20">
+      <c r="A39" s="5" t="s">
         <v>236</v>
       </c>
-      <c r="B39" s="10" t="s">
+      <c r="B39" s="5" t="s">
         <v>219</v>
       </c>
-      <c r="C39" s="10" t="s">
+      <c r="C39" s="5" t="s">
         <v>220</v>
       </c>
-      <c r="D39" s="10" t="s">
+      <c r="D39" s="5" t="s">
         <v>193</v>
       </c>
-      <c r="E39" s="10" t="s">
+      <c r="E39" s="5" t="s">
         <v>237</v>
       </c>
-      <c r="F39" s="10" t="s">
+      <c r="F39" s="5" t="s">
         <v>222</v>
       </c>
-      <c r="G39" s="10"/>
-      <c r="H39" s="10"/>
-      <c r="I39" s="21" t="s">
+      <c r="G39" s="5"/>
+      <c r="H39" s="5"/>
+      <c r="I39" s="17" t="s">
         <v>196</v>
       </c>
-      <c r="J39" s="10"/>
-      <c r="K39" s="10" t="s">
+      <c r="J39" s="5"/>
+      <c r="K39" s="5" t="s">
         <v>238</v>
       </c>
-      <c r="L39" s="10" t="s">
+      <c r="L39" s="5" t="s">
         <v>198</v>
       </c>
-      <c r="M39" s="21" t="s">
+      <c r="M39" s="17" t="s">
         <v>229</v>
       </c>
-      <c r="N39" s="10"/>
-      <c r="O39" s="22" t="s">
+      <c r="N39" s="5"/>
+      <c r="O39" s="18" t="s">
         <v>225</v>
       </c>
-      <c r="P39" s="10" t="s">
+      <c r="P39" s="5" t="s">
         <v>201</v>
       </c>
-      <c r="Q39" s="27"/>
-      <c r="R39" s="10"/>
-      <c r="S39" s="10"/>
-      <c r="T39" s="10"/>
-    </row>
-    <row r="40" s="2" customFormat="1" ht="24.95" customHeight="1" spans="1:20">
-      <c r="A40" s="10" t="s">
+      <c r="Q39" s="23"/>
+      <c r="R39" s="5"/>
+      <c r="S39" s="5"/>
+      <c r="T39" s="5"/>
+    </row>
+    <row r="40" s="4" customFormat="1" ht="24.95" customHeight="1" spans="1:20">
+      <c r="A40" s="5" t="s">
         <v>239</v>
       </c>
-      <c r="B40" s="10" t="s">
+      <c r="B40" s="5" t="s">
         <v>219</v>
       </c>
-      <c r="C40" s="10" t="s">
+      <c r="C40" s="5" t="s">
         <v>240</v>
       </c>
-      <c r="D40" s="10" t="s">
+      <c r="D40" s="5" t="s">
         <v>193</v>
       </c>
-      <c r="E40" s="10" t="s">
+      <c r="E40" s="5" t="s">
         <v>241</v>
       </c>
-      <c r="F40" s="10" t="s">
+      <c r="F40" s="5" t="s">
         <v>242</v>
       </c>
-      <c r="G40" s="10"/>
-      <c r="H40" s="10"/>
-      <c r="I40" s="21" t="s">
+      <c r="G40" s="5"/>
+      <c r="H40" s="5"/>
+      <c r="I40" s="17" t="s">
         <v>196</v>
       </c>
-      <c r="J40" s="10"/>
-      <c r="K40" s="10"/>
-      <c r="L40" s="10" t="s">
+      <c r="J40" s="5"/>
+      <c r="K40" s="5"/>
+      <c r="L40" s="5" t="s">
         <v>198</v>
       </c>
-      <c r="M40" s="21" t="s">
+      <c r="M40" s="17" t="s">
         <v>243</v>
       </c>
-      <c r="N40" s="10"/>
-      <c r="O40" s="22" t="s">
+      <c r="N40" s="5"/>
+      <c r="O40" s="18" t="s">
         <v>244</v>
       </c>
-      <c r="P40" s="10" t="s">
+      <c r="P40" s="5" t="s">
         <v>201</v>
       </c>
-      <c r="Q40" s="27"/>
-      <c r="R40" s="10"/>
-      <c r="S40" s="10"/>
-      <c r="T40" s="10"/>
-    </row>
-    <row r="41" s="2" customFormat="1" ht="24.95" customHeight="1" spans="1:20">
-      <c r="A41" s="10" t="s">
+      <c r="Q40" s="23"/>
+      <c r="R40" s="5"/>
+      <c r="S40" s="5"/>
+      <c r="T40" s="5"/>
+    </row>
+    <row r="41" s="4" customFormat="1" ht="24.95" customHeight="1" spans="1:20">
+      <c r="A41" s="5" t="s">
         <v>245</v>
       </c>
-      <c r="B41" s="10" t="s">
+      <c r="B41" s="5" t="s">
         <v>219</v>
       </c>
-      <c r="C41" s="10" t="s">
+      <c r="C41" s="5" t="s">
         <v>246</v>
       </c>
-      <c r="D41" s="10" t="s">
+      <c r="D41" s="5" t="s">
         <v>193</v>
       </c>
-      <c r="E41" s="10" t="s">
+      <c r="E41" s="5" t="s">
         <v>247</v>
       </c>
-      <c r="F41" s="10" t="s">
+      <c r="F41" s="5" t="s">
         <v>248</v>
       </c>
-      <c r="G41" s="10"/>
-      <c r="H41" s="10"/>
-      <c r="I41" s="21" t="s">
+      <c r="G41" s="5"/>
+      <c r="H41" s="5"/>
+      <c r="I41" s="17" t="s">
         <v>196</v>
       </c>
-      <c r="J41" s="10"/>
-      <c r="K41" s="10" t="s">
+      <c r="J41" s="5"/>
+      <c r="K41" s="5" t="s">
         <v>249</v>
       </c>
-      <c r="L41" s="10" t="s">
+      <c r="L41" s="5" t="s">
         <v>250</v>
       </c>
-      <c r="M41" s="21" t="s">
+      <c r="M41" s="17" t="s">
         <v>251</v>
       </c>
-      <c r="N41" s="10"/>
-      <c r="O41" s="22" t="s">
+      <c r="N41" s="5"/>
+      <c r="O41" s="18" t="s">
         <v>252</v>
       </c>
-      <c r="P41" s="10" t="s">
+      <c r="P41" s="5" t="s">
         <v>201</v>
       </c>
-      <c r="Q41" s="27"/>
-      <c r="R41" s="10"/>
-      <c r="S41" s="10"/>
-      <c r="T41" s="10"/>
-    </row>
-    <row r="42" s="2" customFormat="1" ht="24.95" customHeight="1" spans="1:20">
-      <c r="A42" s="10" t="s">
+      <c r="Q41" s="23"/>
+      <c r="R41" s="5"/>
+      <c r="S41" s="5"/>
+      <c r="T41" s="5"/>
+    </row>
+    <row r="42" s="4" customFormat="1" ht="24.95" customHeight="1" spans="1:20">
+      <c r="A42" s="5" t="s">
         <v>253</v>
       </c>
-      <c r="B42" s="10" t="s">
+      <c r="B42" s="5" t="s">
         <v>219</v>
       </c>
-      <c r="C42" s="10" t="s">
+      <c r="C42" s="5" t="s">
         <v>246</v>
       </c>
-      <c r="D42" s="10" t="s">
+      <c r="D42" s="5" t="s">
         <v>193</v>
       </c>
-      <c r="E42" s="10" t="s">
+      <c r="E42" s="5" t="s">
         <v>254</v>
       </c>
-      <c r="F42" s="10" t="s">
+      <c r="F42" s="5" t="s">
         <v>248</v>
       </c>
-      <c r="G42" s="10"/>
-      <c r="H42" s="10"/>
-      <c r="I42" s="21" t="s">
+      <c r="G42" s="5"/>
+      <c r="H42" s="5"/>
+      <c r="I42" s="17" t="s">
         <v>196</v>
       </c>
-      <c r="J42" s="10"/>
-      <c r="K42" s="10" t="s">
+      <c r="J42" s="5"/>
+      <c r="K42" s="5" t="s">
         <v>255</v>
       </c>
-      <c r="L42" s="10" t="s">
+      <c r="L42" s="5" t="s">
         <v>198</v>
       </c>
-      <c r="M42" s="21" t="s">
+      <c r="M42" s="17" t="s">
         <v>256</v>
       </c>
-      <c r="N42" s="10"/>
-      <c r="O42" s="22" t="s">
+      <c r="N42" s="5"/>
+      <c r="O42" s="18" t="s">
         <v>252</v>
       </c>
-      <c r="P42" s="10" t="s">
+      <c r="P42" s="5" t="s">
         <v>201</v>
       </c>
-      <c r="Q42" s="27"/>
-      <c r="R42" s="10"/>
-      <c r="S42" s="10"/>
-      <c r="T42" s="10"/>
-    </row>
-    <row r="43" s="6" customFormat="1" ht="24.95" customHeight="1" spans="1:20">
-      <c r="A43" s="7" t="s">
+      <c r="Q42" s="23"/>
+      <c r="R42" s="5"/>
+      <c r="S42" s="5"/>
+      <c r="T42" s="5"/>
+    </row>
+    <row r="43" s="4" customFormat="1" ht="24.95" customHeight="1" spans="1:20">
+      <c r="A43" s="5" t="s">
         <v>257</v>
       </c>
-      <c r="B43" s="7" t="s">
+      <c r="B43" s="5" t="s">
         <v>219</v>
       </c>
-      <c r="C43" s="7" t="s">
+      <c r="C43" s="5" t="s">
         <v>258</v>
       </c>
-      <c r="D43" s="7" t="s">
+      <c r="D43" s="5" t="s">
         <v>193</v>
       </c>
-      <c r="E43" s="7" t="s">
+      <c r="E43" s="5" t="s">
         <v>247</v>
       </c>
-      <c r="F43" s="7" t="s">
+      <c r="F43" s="5" t="s">
         <v>259</v>
       </c>
-      <c r="G43" s="7"/>
-      <c r="H43" s="7"/>
-      <c r="I43" s="7" t="s">
+      <c r="G43" s="5"/>
+      <c r="H43" s="5"/>
+      <c r="I43" s="5" t="s">
         <v>260</v>
       </c>
-      <c r="J43" s="7"/>
-      <c r="K43" s="7" t="s">
+      <c r="J43" s="5"/>
+      <c r="K43" s="5" t="s">
         <v>249</v>
       </c>
-      <c r="L43" s="7" t="s">
+      <c r="L43" s="5" t="s">
         <v>261</v>
       </c>
-      <c r="M43" s="23" t="s">
+      <c r="M43" s="17" t="s">
         <v>251</v>
       </c>
-      <c r="N43" s="7"/>
-      <c r="O43" s="24" t="s">
+      <c r="N43" s="5"/>
+      <c r="O43" s="18" t="s">
         <v>262</v>
       </c>
-      <c r="P43" s="7" t="s">
+      <c r="P43" s="5" t="s">
         <v>201</v>
       </c>
-      <c r="Q43" s="1"/>
-      <c r="R43" s="7"/>
-      <c r="S43" s="7"/>
-      <c r="T43" s="7"/>
-    </row>
-    <row r="44" s="6" customFormat="1" ht="24.95" customHeight="1" spans="1:20">
-      <c r="A44" s="7" t="s">
+      <c r="Q43" s="23"/>
+      <c r="R43" s="5"/>
+      <c r="S43" s="5"/>
+      <c r="T43" s="5"/>
+    </row>
+    <row r="44" s="4" customFormat="1" ht="24.95" customHeight="1" spans="1:20">
+      <c r="A44" s="5" t="s">
         <v>263</v>
       </c>
-      <c r="B44" s="7" t="s">
+      <c r="B44" s="5" t="s">
         <v>219</v>
       </c>
-      <c r="C44" s="7" t="s">
+      <c r="C44" s="5" t="s">
         <v>258</v>
       </c>
-      <c r="D44" s="7" t="s">
+      <c r="D44" s="5" t="s">
         <v>193</v>
       </c>
-      <c r="E44" s="7" t="s">
+      <c r="E44" s="5" t="s">
         <v>264</v>
       </c>
-      <c r="F44" s="7" t="s">
+      <c r="F44" s="5" t="s">
         <v>259</v>
       </c>
-      <c r="G44" s="7"/>
-      <c r="H44" s="7"/>
-      <c r="I44" s="7" t="s">
+      <c r="G44" s="5"/>
+      <c r="H44" s="5"/>
+      <c r="I44" s="5" t="s">
         <v>260</v>
       </c>
-      <c r="J44" s="7"/>
-      <c r="K44" s="7" t="s">
+      <c r="J44" s="5"/>
+      <c r="K44" s="5" t="s">
         <v>265</v>
       </c>
-      <c r="L44" s="7" t="s">
+      <c r="L44" s="5" t="s">
         <v>261</v>
       </c>
-      <c r="M44" s="23" t="s">
+      <c r="M44" s="17" t="s">
         <v>266</v>
       </c>
-      <c r="N44" s="7"/>
-      <c r="O44" s="24" t="s">
+      <c r="N44" s="5"/>
+      <c r="O44" s="18" t="s">
         <v>262</v>
       </c>
-      <c r="P44" s="7" t="s">
+      <c r="P44" s="5" t="s">
         <v>201</v>
       </c>
-      <c r="Q44" s="1"/>
-      <c r="R44" s="7"/>
-      <c r="S44" s="7"/>
-      <c r="T44" s="7"/>
-    </row>
-    <row r="45" s="6" customFormat="1" ht="24.95" customHeight="1" spans="1:20">
-      <c r="A45" s="7" t="s">
+      <c r="Q44" s="23"/>
+      <c r="R44" s="5"/>
+      <c r="S44" s="5"/>
+      <c r="T44" s="5"/>
+    </row>
+    <row r="45" s="4" customFormat="1" ht="24.95" customHeight="1" spans="1:20">
+      <c r="A45" s="5" t="s">
         <v>267</v>
       </c>
-      <c r="B45" s="7" t="s">
+      <c r="B45" s="5" t="s">
         <v>219</v>
       </c>
-      <c r="C45" s="7" t="s">
+      <c r="C45" s="5" t="s">
         <v>258</v>
       </c>
-      <c r="D45" s="7" t="s">
+      <c r="D45" s="5" t="s">
         <v>193</v>
       </c>
-      <c r="E45" s="7" t="s">
+      <c r="E45" s="5" t="s">
         <v>268</v>
       </c>
-      <c r="F45" s="7" t="s">
+      <c r="F45" s="5" t="s">
         <v>259</v>
       </c>
-      <c r="G45" s="7"/>
-      <c r="H45" s="7"/>
-      <c r="I45" s="7" t="s">
+      <c r="G45" s="5"/>
+      <c r="H45" s="5"/>
+      <c r="I45" s="5" t="s">
         <v>260</v>
       </c>
-      <c r="J45" s="7"/>
-      <c r="K45" s="7" t="s">
+      <c r="J45" s="5"/>
+      <c r="K45" s="5" t="s">
         <v>269</v>
       </c>
-      <c r="L45" s="7" t="s">
+      <c r="L45" s="5" t="s">
         <v>268</v>
       </c>
-      <c r="M45" s="23" t="s">
+      <c r="M45" s="17" t="s">
         <v>270</v>
       </c>
-      <c r="N45" s="7"/>
-      <c r="O45" s="24" t="s">
+      <c r="N45" s="5"/>
+      <c r="O45" s="18" t="s">
         <v>262</v>
       </c>
-      <c r="P45" s="7" t="s">
+      <c r="P45" s="5" t="s">
         <v>201</v>
       </c>
-      <c r="Q45" s="1"/>
-      <c r="R45" s="7"/>
-      <c r="S45" s="7"/>
-      <c r="T45" s="7"/>
-    </row>
-    <row r="46" s="7" customFormat="1" ht="24.95" customHeight="1" spans="1:18">
-      <c r="A46" s="14" t="s">
+      <c r="Q45" s="23"/>
+      <c r="R45" s="5"/>
+      <c r="S45" s="5"/>
+      <c r="T45" s="5"/>
+    </row>
+    <row r="46" s="5" customFormat="1" ht="24.95" customHeight="1" spans="1:18">
+      <c r="A46" s="11" t="s">
         <v>271</v>
       </c>
-      <c r="B46" s="7" t="s">
+      <c r="B46" s="5" t="s">
         <v>272</v>
       </c>
-      <c r="C46" s="7" t="s">
+      <c r="C46" s="5" t="s">
         <v>273</v>
       </c>
-      <c r="D46" s="7" t="s">
+      <c r="D46" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="E46" s="7" t="s">
+      <c r="E46" s="5" t="s">
         <v>274</v>
       </c>
-      <c r="F46" s="15" t="s">
+      <c r="F46" s="12" t="s">
         <v>275</v>
       </c>
-      <c r="G46" s="15"/>
-      <c r="I46" s="7" t="s">
+      <c r="G46" s="12"/>
+      <c r="I46" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="K46" s="15"/>
-      <c r="L46" s="23" t="s">
+      <c r="K46" s="12"/>
+      <c r="L46" s="17" t="s">
         <v>276</v>
       </c>
-      <c r="M46" s="15" t="s">
+      <c r="M46" s="12" t="s">
         <v>129</v>
       </c>
-      <c r="O46" s="24" t="s">
+      <c r="O46" s="18" t="s">
         <v>277</v>
       </c>
-      <c r="P46" s="7" t="s">
+      <c r="P46" s="5" t="s">
         <v>278</v>
       </c>
-      <c r="R46" s="24" t="s">
+      <c r="R46" s="18" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="47" s="7" customFormat="1" ht="24.95" customHeight="1" spans="1:18">
-      <c r="A47" s="14" t="s">
+    <row r="47" s="5" customFormat="1" ht="24.95" customHeight="1" spans="1:18">
+      <c r="A47" s="11" t="s">
         <v>280</v>
       </c>
-      <c r="B47" s="7" t="s">
+      <c r="B47" s="5" t="s">
         <v>272</v>
       </c>
-      <c r="C47" s="7" t="s">
+      <c r="C47" s="5" t="s">
         <v>281</v>
       </c>
-      <c r="D47" s="7" t="s">
+      <c r="D47" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="E47" s="7" t="s">
+      <c r="E47" s="5" t="s">
         <v>282</v>
       </c>
-      <c r="F47" s="15" t="s">
+      <c r="F47" s="12" t="s">
         <v>283</v>
       </c>
-      <c r="G47" s="15"/>
-      <c r="I47" s="7" t="s">
+      <c r="G47" s="12"/>
+      <c r="I47" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="K47" s="15" t="s">
+      <c r="K47" s="12" t="s">
         <v>284</v>
       </c>
-      <c r="L47" s="23" t="s">
+      <c r="L47" s="17" t="s">
         <v>276</v>
       </c>
-      <c r="M47" s="15" t="s">
+      <c r="M47" s="12" t="s">
         <v>129</v>
       </c>
-      <c r="O47" s="24" t="s">
+      <c r="O47" s="18" t="s">
         <v>285</v>
       </c>
-      <c r="P47" s="7" t="s">
+      <c r="P47" s="5" t="s">
         <v>278</v>
       </c>
-      <c r="R47" s="24" t="s">
+      <c r="R47" s="18" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="48" s="7" customFormat="1" ht="24.95" customHeight="1" spans="1:18">
-      <c r="A48" s="14" t="s">
+    <row r="48" s="5" customFormat="1" ht="24.95" customHeight="1" spans="1:18">
+      <c r="A48" s="11" t="s">
         <v>286</v>
       </c>
-      <c r="B48" s="7" t="s">
+      <c r="B48" s="5" t="s">
         <v>272</v>
       </c>
-      <c r="C48" s="7" t="s">
+      <c r="C48" s="5" t="s">
         <v>281</v>
       </c>
-      <c r="D48" s="7" t="s">
+      <c r="D48" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="E48" s="7" t="s">
+      <c r="E48" s="5" t="s">
         <v>287</v>
       </c>
-      <c r="F48" s="15" t="s">
+      <c r="F48" s="12" t="s">
         <v>283</v>
       </c>
-      <c r="G48" s="15"/>
-      <c r="I48" s="7" t="s">
+      <c r="G48" s="12"/>
+      <c r="I48" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="K48" s="15" t="s">
+      <c r="K48" s="12" t="s">
         <v>288</v>
       </c>
-      <c r="L48" s="23" t="s">
+      <c r="L48" s="17" t="s">
         <v>276</v>
       </c>
-      <c r="M48" s="15" t="s">
+      <c r="M48" s="12" t="s">
         <v>129</v>
       </c>
-      <c r="O48" s="25" t="s">
+      <c r="O48" s="19" t="s">
         <v>285</v>
       </c>
-      <c r="P48" s="7" t="s">
+      <c r="P48" s="5" t="s">
         <v>278</v>
       </c>
-      <c r="R48" s="24" t="s">
+      <c r="R48" s="18" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="49" s="7" customFormat="1" ht="24.95" customHeight="1" spans="1:18">
-      <c r="A49" s="14" t="s">
+    <row r="49" s="5" customFormat="1" ht="24.95" customHeight="1" spans="1:18">
+      <c r="A49" s="11" t="s">
         <v>289</v>
       </c>
-      <c r="B49" s="7" t="s">
+      <c r="B49" s="5" t="s">
         <v>272</v>
       </c>
-      <c r="C49" s="7" t="s">
+      <c r="C49" s="5" t="s">
         <v>281</v>
       </c>
-      <c r="D49" s="7" t="s">
+      <c r="D49" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="E49" s="7" t="s">
+      <c r="E49" s="5" t="s">
         <v>290</v>
       </c>
-      <c r="F49" s="15" t="s">
+      <c r="F49" s="12" t="s">
         <v>283</v>
       </c>
-      <c r="G49" s="15"/>
-      <c r="I49" s="7" t="s">
+      <c r="G49" s="12"/>
+      <c r="I49" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="K49" s="15" t="s">
+      <c r="K49" s="12" t="s">
         <v>291</v>
       </c>
-      <c r="L49" s="23" t="s">
+      <c r="L49" s="17" t="s">
         <v>276</v>
       </c>
-      <c r="M49" s="15" t="s">
+      <c r="M49" s="12" t="s">
         <v>129</v>
       </c>
-      <c r="O49" s="25" t="s">
+      <c r="O49" s="19" t="s">
         <v>285</v>
       </c>
-      <c r="P49" s="7" t="s">
+      <c r="P49" s="5" t="s">
         <v>278</v>
       </c>
-      <c r="R49" s="24" t="s">
+      <c r="R49" s="18" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="50" s="7" customFormat="1" ht="24.95" customHeight="1" spans="1:18">
-      <c r="A50" s="14" t="s">
+    <row r="50" s="5" customFormat="1" ht="24.95" customHeight="1" spans="1:18">
+      <c r="A50" s="11" t="s">
         <v>292</v>
       </c>
-      <c r="B50" s="7" t="s">
+      <c r="B50" s="5" t="s">
         <v>272</v>
       </c>
-      <c r="C50" s="7" t="s">
+      <c r="C50" s="5" t="s">
         <v>281</v>
       </c>
-      <c r="D50" s="7" t="s">
+      <c r="D50" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="E50" s="7" t="s">
+      <c r="E50" s="5" t="s">
         <v>293</v>
       </c>
-      <c r="F50" s="15" t="s">
+      <c r="F50" s="12" t="s">
         <v>283</v>
       </c>
-      <c r="G50" s="15"/>
-      <c r="I50" s="7" t="s">
+      <c r="G50" s="12"/>
+      <c r="I50" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="K50" s="15" t="s">
+      <c r="K50" s="12" t="s">
         <v>294</v>
       </c>
-      <c r="L50" s="23" t="s">
+      <c r="L50" s="17" t="s">
         <v>276</v>
       </c>
-      <c r="M50" s="15" t="s">
+      <c r="M50" s="12" t="s">
         <v>129</v>
       </c>
-      <c r="O50" s="25" t="s">
+      <c r="O50" s="19" t="s">
         <v>285</v>
       </c>
-      <c r="P50" s="7" t="s">
+      <c r="P50" s="5" t="s">
         <v>278</v>
       </c>
-      <c r="R50" s="24" t="s">
+      <c r="R50" s="18" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="51" s="7" customFormat="1" ht="24.95" customHeight="1" spans="1:18">
-      <c r="A51" s="14" t="s">
+    <row r="51" s="5" customFormat="1" ht="24.95" customHeight="1" spans="1:18">
+      <c r="A51" s="11" t="s">
         <v>295</v>
       </c>
-      <c r="B51" s="7" t="s">
+      <c r="B51" s="5" t="s">
         <v>272</v>
       </c>
-      <c r="C51" s="7" t="s">
+      <c r="C51" s="5" t="s">
         <v>281</v>
       </c>
-      <c r="D51" s="7" t="s">
+      <c r="D51" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="E51" s="7" t="s">
+      <c r="E51" s="5" t="s">
         <v>296</v>
       </c>
-      <c r="F51" s="15" t="s">
+      <c r="F51" s="12" t="s">
         <v>283</v>
       </c>
-      <c r="G51" s="15"/>
-      <c r="I51" s="7" t="s">
+      <c r="G51" s="12"/>
+      <c r="I51" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="K51" s="15" t="s">
+      <c r="K51" s="12" t="s">
         <v>297</v>
       </c>
-      <c r="L51" s="23" t="s">
+      <c r="L51" s="17" t="s">
         <v>298</v>
       </c>
-      <c r="M51" s="15" t="s">
+      <c r="M51" s="12" t="s">
         <v>299</v>
       </c>
-      <c r="O51" s="24" t="s">
+      <c r="O51" s="18" t="s">
         <v>285</v>
       </c>
-      <c r="P51" s="7" t="s">
+      <c r="P51" s="5" t="s">
         <v>278</v>
       </c>
-      <c r="R51" s="24" t="s">
+      <c r="R51" s="18" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="52" s="7" customFormat="1" ht="24.95" customHeight="1" spans="1:18">
-      <c r="A52" s="14" t="s">
+    <row r="52" s="5" customFormat="1" ht="24.95" customHeight="1" spans="1:18">
+      <c r="A52" s="11" t="s">
         <v>300</v>
       </c>
-      <c r="B52" s="7" t="s">
+      <c r="B52" s="5" t="s">
         <v>272</v>
       </c>
-      <c r="C52" s="7" t="s">
+      <c r="C52" s="5" t="s">
         <v>301</v>
       </c>
-      <c r="D52" s="7" t="s">
+      <c r="D52" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="E52" s="7" t="s">
+      <c r="E52" s="5" t="s">
         <v>302</v>
       </c>
-      <c r="F52" s="15" t="s">
+      <c r="F52" s="12" t="s">
         <v>303</v>
       </c>
-      <c r="G52" s="15" t="s">
+      <c r="G52" s="12" t="s">
         <v>304</v>
       </c>
-      <c r="H52" s="7" t="s">
+      <c r="H52" s="5" t="s">
         <v>305</v>
       </c>
-      <c r="I52" s="7" t="s">
+      <c r="I52" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="K52" s="15" t="s">
+      <c r="K52" s="12" t="s">
         <v>306</v>
       </c>
-      <c r="L52" s="23" t="s">
+      <c r="L52" s="17" t="s">
         <v>276</v>
       </c>
-      <c r="M52" s="15" t="s">
+      <c r="M52" s="12" t="s">
         <v>129</v>
       </c>
-      <c r="O52" s="24" t="s">
+      <c r="O52" s="18" t="s">
         <v>307</v>
       </c>
-      <c r="P52" s="7" t="s">
+      <c r="P52" s="5" t="s">
         <v>278</v>
       </c>
-      <c r="R52" s="24" t="s">
+      <c r="R52" s="18" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="53" s="7" customFormat="1" ht="24.95" customHeight="1" spans="1:18">
-      <c r="A53" s="14" t="s">
+    <row r="53" s="5" customFormat="1" ht="24.95" customHeight="1" spans="1:18">
+      <c r="A53" s="11" t="s">
         <v>308</v>
       </c>
-      <c r="B53" s="7" t="s">
+      <c r="B53" s="5" t="s">
         <v>272</v>
       </c>
-      <c r="C53" s="7" t="s">
+      <c r="C53" s="5" t="s">
         <v>301</v>
       </c>
-      <c r="D53" s="7" t="s">
+      <c r="D53" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="E53" s="7" t="s">
+      <c r="E53" s="5" t="s">
         <v>309</v>
       </c>
-      <c r="F53" s="15" t="s">
+      <c r="F53" s="12" t="s">
         <v>303</v>
       </c>
-      <c r="G53" s="15"/>
-      <c r="H53" s="7" t="s">
+      <c r="G53" s="12"/>
+      <c r="H53" s="5" t="s">
         <v>310</v>
       </c>
-      <c r="I53" s="7" t="s">
+      <c r="I53" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="K53" s="15" t="s">
+      <c r="K53" s="12" t="s">
         <v>306</v>
       </c>
-      <c r="L53" s="23" t="s">
+      <c r="L53" s="17" t="s">
         <v>276</v>
       </c>
-      <c r="M53" s="15" t="s">
+      <c r="M53" s="12" t="s">
         <v>129</v>
       </c>
-      <c r="O53" s="24" t="s">
+      <c r="O53" s="18" t="s">
         <v>307</v>
       </c>
-      <c r="P53" s="7" t="s">
+      <c r="P53" s="5" t="s">
         <v>278</v>
       </c>
-      <c r="R53" s="24" t="s">
+      <c r="R53" s="18" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="54" s="7" customFormat="1" ht="24.95" customHeight="1" spans="1:18">
-      <c r="A54" s="14" t="s">
+    <row r="54" s="5" customFormat="1" ht="24.95" customHeight="1" spans="1:18">
+      <c r="A54" s="11" t="s">
         <v>311</v>
       </c>
-      <c r="B54" s="7" t="s">
+      <c r="B54" s="5" t="s">
         <v>272</v>
       </c>
-      <c r="C54" s="7" t="s">
+      <c r="C54" s="5" t="s">
         <v>312</v>
       </c>
-      <c r="D54" s="7" t="s">
+      <c r="D54" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="E54" s="7" t="s">
+      <c r="E54" s="5" t="s">
         <v>312</v>
       </c>
-      <c r="F54" s="15" t="s">
+      <c r="F54" s="12" t="s">
         <v>313</v>
       </c>
-      <c r="G54" s="15" t="s">
+      <c r="G54" s="12" t="s">
         <v>304</v>
       </c>
-      <c r="H54" s="7" t="s">
+      <c r="H54" s="5" t="s">
         <v>305</v>
       </c>
-      <c r="I54" s="7" t="s">
+      <c r="I54" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="K54" s="15" t="s">
+      <c r="K54" s="12" t="s">
         <v>314</v>
       </c>
-      <c r="L54" s="23" t="s">
+      <c r="L54" s="17" t="s">
         <v>276</v>
       </c>
-      <c r="M54" s="15" t="s">
+      <c r="M54" s="12" t="s">
         <v>129</v>
       </c>
-      <c r="O54" s="24" t="s">
+      <c r="O54" s="18" t="s">
         <v>315</v>
       </c>
-      <c r="P54" s="7" t="s">
+      <c r="P54" s="5" t="s">
         <v>278</v>
       </c>
-      <c r="R54" s="24" t="s">
+      <c r="R54" s="18" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="55" s="7" customFormat="1" ht="24.95" customHeight="1" spans="1:18">
-      <c r="A55" s="14" t="s">
+    <row r="55" s="6" customFormat="1" ht="24.95" customHeight="1" spans="1:18">
+      <c r="A55" s="11" t="s">
         <v>316</v>
       </c>
-      <c r="B55" s="7" t="s">
+      <c r="B55" s="6" t="s">
         <v>272</v>
       </c>
-      <c r="C55" s="7" t="s">
+      <c r="C55" s="6" t="s">
         <v>317</v>
       </c>
-      <c r="D55" s="7" t="s">
+      <c r="D55" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="E55" s="7" t="s">
+      <c r="E55" s="6" t="s">
         <v>317</v>
       </c>
-      <c r="F55" s="15" t="s">
+      <c r="F55" s="12" t="s">
         <v>318</v>
       </c>
-      <c r="G55" s="15" t="s">
+      <c r="G55" s="12" t="s">
         <v>304</v>
       </c>
-      <c r="H55" s="7" t="s">
+      <c r="H55" s="6" t="s">
         <v>305</v>
       </c>
-      <c r="I55" s="7" t="s">
+      <c r="I55" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="K55" s="15" t="s">
+      <c r="K55" s="12" t="s">
         <v>314</v>
       </c>
-      <c r="L55" s="23" t="s">
+      <c r="L55" s="20" t="s">
         <v>276</v>
       </c>
-      <c r="M55" s="15" t="s">
+      <c r="M55" s="12" t="s">
         <v>129</v>
       </c>
-      <c r="O55" s="25" t="s">
+      <c r="O55" s="21" t="s">
         <v>319</v>
       </c>
-      <c r="P55" s="7" t="s">
+      <c r="P55" s="6" t="s">
         <v>278</v>
       </c>
       <c r="R55" s="24" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="56" s="7" customFormat="1" ht="24.95" customHeight="1" spans="1:18">
-      <c r="A56" s="14" t="s">
+    <row r="56" s="5" customFormat="1" ht="24.95" customHeight="1" spans="1:18">
+      <c r="A56" s="11" t="s">
         <v>320</v>
       </c>
-      <c r="B56" s="7" t="s">
+      <c r="B56" s="5" t="s">
         <v>272</v>
       </c>
-      <c r="C56" s="7" t="s">
+      <c r="C56" s="5" t="s">
         <v>321</v>
       </c>
-      <c r="D56" s="7" t="s">
+      <c r="D56" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="E56" s="7" t="s">
+      <c r="E56" s="5" t="s">
         <v>322</v>
       </c>
-      <c r="F56" s="15" t="s">
+      <c r="F56" s="12" t="s">
         <v>323</v>
       </c>
-      <c r="G56" s="15" t="s">
+      <c r="G56" s="12" t="s">
         <v>304</v>
       </c>
-      <c r="H56" s="7" t="s">
+      <c r="H56" s="5" t="s">
         <v>324</v>
       </c>
-      <c r="I56" s="7" t="s">
+      <c r="I56" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="K56" s="15"/>
-      <c r="L56" s="23" t="s">
+      <c r="K56" s="12"/>
+      <c r="L56" s="17" t="s">
         <v>276</v>
       </c>
-      <c r="M56" s="15" t="s">
+      <c r="M56" s="12" t="s">
         <v>129</v>
       </c>
-      <c r="N56" s="7" t="s">
+      <c r="N56" s="5" t="s">
         <v>325</v>
       </c>
-      <c r="O56" s="24" t="s">
+      <c r="O56" s="18" t="s">
         <v>326</v>
       </c>
-      <c r="P56" s="7" t="s">
+      <c r="P56" s="5" t="s">
         <v>278</v>
       </c>
-      <c r="R56" s="24" t="s">
+      <c r="R56" s="18" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="57" s="7" customFormat="1" ht="24.95" customHeight="1" spans="1:18">
-      <c r="A57" s="14" t="s">
+    <row r="57" s="5" customFormat="1" ht="24.95" customHeight="1" spans="1:18">
+      <c r="A57" s="11" t="s">
         <v>327</v>
       </c>
-      <c r="B57" s="7" t="s">
+      <c r="B57" s="5" t="s">
         <v>272</v>
       </c>
-      <c r="C57" s="7" t="s">
+      <c r="C57" s="5" t="s">
         <v>321</v>
       </c>
-      <c r="D57" s="7" t="s">
+      <c r="D57" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="E57" s="7" t="s">
+      <c r="E57" s="5" t="s">
         <v>328</v>
       </c>
-      <c r="F57" s="15" t="s">
+      <c r="F57" s="12" t="s">
         <v>323</v>
       </c>
-      <c r="G57" s="15"/>
-      <c r="I57" s="7" t="s">
+      <c r="G57" s="12"/>
+      <c r="I57" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="K57" s="15"/>
-      <c r="L57" s="23" t="s">
+      <c r="K57" s="12"/>
+      <c r="L57" s="17" t="s">
         <v>276</v>
       </c>
-      <c r="M57" s="15" t="s">
+      <c r="M57" s="12" t="s">
         <v>129</v>
       </c>
-      <c r="N57" s="7" t="s">
+      <c r="N57" s="5" t="s">
         <v>329</v>
       </c>
-      <c r="O57" s="24" t="s">
+      <c r="O57" s="18" t="s">
         <v>326</v>
       </c>
-      <c r="P57" s="7" t="s">
+      <c r="P57" s="5" t="s">
         <v>278</v>
       </c>
-      <c r="R57" s="24" t="s">
+      <c r="R57" s="18" t="s">
         <v>279</v>
       </c>
     </row>

--- a/test_case_data/bmc/bmc_my_2021513.xlsx
+++ b/test_case_data/bmc/bmc_my_2021513.xlsx
@@ -862,6 +862,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t>FeedbackfeedbackType</t>
     </r>
     <r>
@@ -901,6 +906,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t>Feedback</t>
     </r>
     <r>
@@ -1041,6 +1051,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t>Feedback</t>
     </r>
     <r>
@@ -1103,6 +1118,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t>Feedback</t>
     </r>
     <r>
@@ -1130,6 +1150,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t>Feedback</t>
     </r>
     <r>
@@ -1153,6 +1178,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t>Feedback</t>
     </r>
     <r>
@@ -1218,8 +1248,8 @@
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="29">
     <font>
@@ -1281,9 +1311,23 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1297,28 +1341,30 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1340,14 +1386,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
@@ -1360,14 +1398,6 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1387,24 +1417,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1418,8 +1432,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1460,7 +1490,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1472,13 +1514,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1490,25 +1532,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1526,13 +1574,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1544,25 +1616,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1574,73 +1658,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1654,16 +1684,16 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -1680,6 +1710,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1719,30 +1758,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -1751,6 +1766,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1759,10 +1789,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1771,133 +1801,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="28" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2326,9 +2356,9 @@
   <dimension ref="A1:T57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A40" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="E23" sqref="E23"/>
+      <selection pane="bottomLeft" activeCell="A54" sqref="$A54:$XFD54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3121,7 +3151,6 @@
       <c r="I19" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="J19" s="2"/>
       <c r="K19" s="2" t="s">
         <v>104</v>
       </c>
